--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -491,70 +491,70 @@
                   <c:v>7712.1081081080747</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9324.1167287978042</c:v>
+                  <c:v>7712.1081081080747</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13276.090463081166</c:v>
+                  <c:v>11664.081842391435</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23485.67971473022</c:v>
+                  <c:v>21873.671094040492</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42093.415611481694</c:v>
+                  <c:v>40481.406990791962</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53760.229993869361</c:v>
+                  <c:v>52148.221373179636</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66579.95494943182</c:v>
+                  <c:v>64967.946328742102</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80794.34280972142</c:v>
+                  <c:v>79182.33418903171</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>107219.06042579077</c:v>
+                  <c:v>105607.05180510106</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>131784.6202724032</c:v>
+                  <c:v>130172.61165171349</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>166149.786436119</c:v>
+                  <c:v>164537.77781542929</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>207372.4454133574</c:v>
+                  <c:v>205760.43679266769</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>249282.23174078748</c:v>
+                  <c:v>247670.22312009777</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>274202.38868168578</c:v>
+                  <c:v>272590.3800609961</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>303178.40750518732</c:v>
+                  <c:v>301566.39888449764</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>334767.38287410734</c:v>
+                  <c:v>333155.37425341766</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>374384.62958044704</c:v>
+                  <c:v>372772.62095975736</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>413861.13978648768</c:v>
+                  <c:v>412249.13116579794</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>449045.97951015388</c:v>
+                  <c:v>447433.97088946414</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>482747.79115322325</c:v>
+                  <c:v>481135.78253253351</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>506882.15109478153</c:v>
+                  <c:v>505270.14247409179</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>533538.43397280865</c:v>
+                  <c:v>531926.42535211891</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>558159.12892922503</c:v>
+                  <c:v>556547.12030853529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -686,70 +686,70 @@
                   <c:v>7712.1081081080747</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9526.6798394503476</c:v>
+                  <c:v>7914.671218760619</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13229.316937588863</c:v>
+                  <c:v>11701.688775504419</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22863.802849919593</c:v>
+                  <c:v>21472.660615758588</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41228.221489360491</c:v>
+                  <c:v>39869.038874257116</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54271.398767536579</c:v>
+                  <c:v>52813.025907850562</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68058.953384150693</c:v>
+                  <c:v>66545.825969857004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81013.727792332196</c:v>
+                  <c:v>79558.439401320473</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>98792.667403890053</c:v>
+                  <c:v>97664.720683972031</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>123165.15199465382</c:v>
+                  <c:v>122042.56010108377</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>144187.2438233509</c:v>
+                  <c:v>143360.90437901206</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>171809.67129323675</c:v>
+                  <c:v>171213.32513610244</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>220341.65594940397</c:v>
+                  <c:v>219660.19139812523</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>273952.24679163739</c:v>
+                  <c:v>272972.15173328848</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>287119.55006387713</c:v>
+                  <c:v>286289.03519777412</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>306084.80523157853</c:v>
+                  <c:v>305361.68024218484</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>316394.97942580283</c:v>
+                  <c:v>315895.43930199702</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>351303.79923768999</c:v>
+                  <c:v>350834.74284954427</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>405748.92693941563</c:v>
+                  <c:v>405165.77582340705</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>438662.62417888164</c:v>
+                  <c:v>438083.73687453551</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>505419.40017620381</c:v>
+                  <c:v>504627.63565710397</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>514396.84385754645</c:v>
+                  <c:v>513689.15984423808</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>544398.08812918328</c:v>
+                  <c:v>543666.14031884272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -881,70 +881,70 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>202.5631106525434</c:v>
+                  <c:v>202.56311065254431</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-46.773525492302724</c:v>
+                  <c:v>37.606933112983825</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-621.87686481062701</c:v>
+                  <c:v>-401.01047828190349</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-865.19412212120369</c:v>
+                  <c:v>-612.36811653484619</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>511.16877366721747</c:v>
+                  <c:v>664.80453467092593</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1478.9984347188729</c:v>
+                  <c:v>1577.8796411149015</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>219.38498261077621</c:v>
+                  <c:v>376.10521228876314</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-8426.3930219007161</c:v>
+                  <c:v>-7942.3311211290275</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-8619.4682777493872</c:v>
+                  <c:v>-8130.0515506297234</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-21962.542612768098</c:v>
+                  <c:v>-21176.873436417227</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-35562.774120120652</c:v>
+                  <c:v>-34547.111656565248</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-28940.575791383511</c:v>
+                  <c:v>-28010.03172197254</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-250.14189004839864</c:v>
+                  <c:v>381.77167229237966</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-16058.857441310189</c:v>
+                  <c:v>-15277.363686723518</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-28682.577642528806</c:v>
+                  <c:v>-27793.694011232816</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-57989.650154644216</c:v>
+                  <c:v>-56877.181657760346</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-62557.340548797685</c:v>
+                  <c:v>-61414.388316253666</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-43297.052570738248</c:v>
+                  <c:v>-42268.195066057087</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-44085.166974341613</c:v>
+                  <c:v>-43052.045657998009</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1462.7509185777162</c:v>
+                  <c:v>-642.50681698782137</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-19141.590115262195</c:v>
+                  <c:v>-18237.265507880831</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-13761.040800041752</c:v>
+                  <c:v>-12880.979989692569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -966,11 +966,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="483406592"/>
-        <c:axId val="483408128"/>
+        <c:axId val="254294656"/>
+        <c:axId val="254316928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="483406592"/>
+        <c:axId val="254294656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1013,14 +1013,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483408128"/>
+        <c:crossAx val="254316928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="483408128"/>
+        <c:axId val="254316928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,7 +1071,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483406592"/>
+        <c:crossAx val="254294656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1197,7 +1197,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1240,7 +1239,7 @@
                   <c:v>7712.1081081080747</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1612.0086206897299</c:v>
+                  <c:v>-1612.0086206897299</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3951.9737342833614</c:v>
@@ -1318,8 +1317,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="617263104"/>
-        <c:axId val="613554048"/>
+        <c:axId val="265266304"/>
+        <c:axId val="264989696"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1513,11 +1512,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="612407936"/>
-        <c:axId val="613552512"/>
+        <c:axId val="256396672"/>
+        <c:axId val="264988160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="612407936"/>
+        <c:axId val="256396672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1560,14 +1559,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613552512"/>
+        <c:crossAx val="264988160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="613552512"/>
+        <c:axId val="264988160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1618,12 +1617,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="612407936"/>
+        <c:crossAx val="256396672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="613554048"/>
+        <c:axId val="264989696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1660,12 +1659,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617263104"/>
+        <c:crossAx val="265266304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="617263104"/>
+        <c:axId val="265266304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1674,7 +1673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="613554048"/>
+        <c:crossAx val="264989696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2208,15 +2207,12 @@
         <v>0</v>
       </c>
       <c r="J3" s="17">
-        <f t="shared" ref="J3:J26" si="0">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="17">
-        <f t="shared" ref="K3:K26" si="1">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="16">
-        <f>IF(E3&lt;0,L2-E3,L2)</f>
         <v>0</v>
       </c>
       <c r="M3" s="6"/>
@@ -2249,11 +2245,11 @@
       </c>
       <c r="Z3" s="28">
         <f>Q4</f>
-        <v>80794.34280972142</v>
+        <v>79182.33418903171</v>
       </c>
       <c r="AA3" s="1">
         <f>-Z3</f>
-        <v>-80794.34280972142</v>
+        <v>-79182.33418903171</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2285,15 +2281,12 @@
         <v>7712.1081081080747</v>
       </c>
       <c r="J4" s="17">
-        <f t="shared" si="0"/>
         <v>7712.1081081080747</v>
       </c>
       <c r="K4" s="17">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L4" s="16">
-        <f t="shared" ref="L4:L26" si="2">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="6"/>
@@ -2301,36 +2294,36 @@
         <v>44561</v>
       </c>
       <c r="Q4" s="9">
-        <v>80794.34280972142</v>
+        <v>79182.33418903171</v>
       </c>
       <c r="R4" s="4">
-        <v>80794.34280972142</v>
+        <v>79182.33418903171</v>
       </c>
       <c r="S4" s="4">
-        <v>81013.727792332196</v>
+        <v>79558.439401320473</v>
       </c>
       <c r="T4" s="4">
-        <v>219.38498261077621</v>
+        <v>376.10521228876314</v>
       </c>
       <c r="U4" s="4">
-        <v>0</v>
+        <v>1612.0086206897299</v>
       </c>
       <c r="V4" s="8">
-        <v>2.7153507904315688E-3</v>
+        <v>4.7498626573812342E-3</v>
       </c>
       <c r="W4" s="8">
-        <v>2.7153507904315688E-3</v>
+        <v>4.7498626573812342E-3</v>
       </c>
       <c r="Y4" s="19">
         <v>44925</v>
       </c>
       <c r="Z4" s="28">
         <f>Q5</f>
-        <v>401953.44834350183</v>
+        <v>401953.44834350178</v>
       </c>
       <c r="AA4" s="1">
         <f>-Z4</f>
-        <v>-401953.44834350183</v>
+        <v>-401953.44834350178</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2347,63 +2340,60 @@
         <v>41.041896551724122</v>
       </c>
       <c r="E5" s="16">
+        <v>-1612.0086206897299</v>
+      </c>
+      <c r="F5" s="17">
+        <v>-315.37022950099191</v>
+      </c>
+      <c r="G5" s="17">
+        <v>1233.0406453846811</v>
+      </c>
+      <c r="H5" s="17">
+        <v>6302.6625980708886</v>
+      </c>
+      <c r="I5" s="17">
+        <v>7712.1081081080747</v>
+      </c>
+      <c r="J5" s="17">
+        <v>7914.671218760619</v>
+      </c>
+      <c r="K5" s="17">
+        <v>202.56311065254431</v>
+      </c>
+      <c r="L5" s="16">
         <v>1612.0086206897299</v>
-      </c>
-      <c r="F5" s="17">
-        <v>315.37022950099191</v>
-      </c>
-      <c r="G5" s="17">
-        <v>1863.7811043866648</v>
-      </c>
-      <c r="H5" s="17">
-        <v>9526.6798394503476</v>
-      </c>
-      <c r="I5" s="17">
-        <v>9324.1167287978042</v>
-      </c>
-      <c r="J5" s="17">
-        <f t="shared" si="0"/>
-        <v>9526.6798394503476</v>
-      </c>
-      <c r="K5" s="17">
-        <f t="shared" si="1"/>
-        <v>202.5631106525434</v>
-      </c>
-      <c r="L5" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
       <c r="M5" s="6"/>
       <c r="P5" s="19">
         <v>44925</v>
       </c>
       <c r="Q5" s="9">
-        <v>401953.44834350183</v>
+        <v>401953.44834350178</v>
       </c>
       <c r="R5" s="4">
-        <v>482747.79115322325</v>
+        <v>481135.78253253351</v>
       </c>
       <c r="S5" s="4">
-        <v>438662.62417888164</v>
+        <v>438083.73687453551</v>
       </c>
       <c r="T5" s="4">
-        <v>-44085.166974341613</v>
+        <v>-43052.045657998009</v>
       </c>
       <c r="U5" s="4">
-        <v>0</v>
+        <v>1612.0086206897299</v>
       </c>
       <c r="V5" s="8">
-        <v>-9.1321323022582335E-2</v>
+        <v>-8.9480032915836824E-2</v>
       </c>
       <c r="W5" s="8">
-        <v>-7.9126325574762846E-2</v>
+        <v>-7.7687910354100831E-2</v>
       </c>
       <c r="Y5" s="19">
         <v>44925</v>
       </c>
       <c r="AA5" s="1">
         <f>VLOOKUP(Y5,P:S,4)</f>
-        <v>438662.62417888164</v>
+        <v>438083.73687453551</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2426,29 +2416,26 @@
         <v>793.93570007902485</v>
       </c>
       <c r="G6" s="17">
-        <v>2657.7168044656896</v>
+        <v>2026.9763454637059</v>
       </c>
       <c r="H6" s="17">
-        <v>13229.316937588863</v>
+        <v>10089.680154814689</v>
       </c>
       <c r="I6" s="17">
-        <v>13276.090463081166</v>
+        <v>11664.081842391435</v>
       </c>
       <c r="J6" s="17">
-        <f t="shared" si="0"/>
-        <v>13229.316937588863</v>
+        <v>11701.688775504419</v>
       </c>
       <c r="K6" s="17">
-        <f t="shared" si="1"/>
-        <v>-46.773525492302724</v>
+        <v>37.606933112983825</v>
       </c>
       <c r="L6" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1612.0086206897299</v>
       </c>
       <c r="M6" s="6"/>
       <c r="AA6" s="2">
-        <v>-7.9126325574762846E-2</v>
+        <v>-7.7687910354100831E-2</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2471,25 +2458,22 @@
         <v>2144.281563613597</v>
       </c>
       <c r="G7" s="17">
-        <v>4801.9983680792866</v>
+        <v>4171.2579090773033</v>
       </c>
       <c r="H7" s="17">
-        <v>22863.802849919593</v>
+        <v>19860.65199506886</v>
       </c>
       <c r="I7" s="17">
-        <v>23485.67971473022</v>
+        <v>21873.671094040492</v>
       </c>
       <c r="J7" s="17">
-        <f t="shared" si="0"/>
-        <v>22863.802849919593</v>
+        <v>21472.660615758588</v>
       </c>
       <c r="K7" s="17">
-        <f t="shared" si="1"/>
-        <v>-621.87686481062701</v>
+        <v>-401.01047828190349</v>
       </c>
       <c r="L7" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1612.0086206897299</v>
       </c>
       <c r="M7" s="6"/>
     </row>
@@ -2513,25 +2497,22 @@
         <v>3950.1502761305196</v>
       </c>
       <c r="G8" s="17">
-        <v>8752.1486442098067</v>
+        <v>8121.4081852078234</v>
       </c>
       <c r="H8" s="17">
-        <v>41228.221489360491</v>
+        <v>38257.030253567384</v>
       </c>
       <c r="I8" s="17">
-        <v>42093.415611481694</v>
+        <v>40481.406990791962</v>
       </c>
       <c r="J8" s="17">
-        <f t="shared" si="0"/>
-        <v>41228.221489360491</v>
+        <v>39869.038874257116</v>
       </c>
       <c r="K8" s="17">
-        <f t="shared" si="1"/>
-        <v>-865.19412212120369</v>
+        <v>-612.36811653484619</v>
       </c>
       <c r="L8" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1612.0086206897299</v>
       </c>
       <c r="M8" s="6"/>
     </row>
@@ -2555,25 +2536,22 @@
         <v>2396.6832478867009</v>
       </c>
       <c r="G9" s="17">
-        <v>11148.831892096507</v>
+        <v>10518.091433094523</v>
       </c>
       <c r="H9" s="17">
-        <v>54271.398767536579</v>
+        <v>51201.01728716083</v>
       </c>
       <c r="I9" s="17">
-        <v>53760.229993869361</v>
+        <v>52148.221373179636</v>
       </c>
       <c r="J9" s="17">
-        <f t="shared" si="0"/>
-        <v>54271.398767536579</v>
+        <v>52813.025907850562</v>
       </c>
       <c r="K9" s="17">
-        <f t="shared" si="1"/>
-        <v>511.16877366721747</v>
+        <v>664.80453467092593</v>
       </c>
       <c r="L9" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1612.0086206897299</v>
       </c>
       <c r="M9" s="6"/>
     </row>
@@ -2597,25 +2575,22 @@
         <v>2587.3815130718158</v>
       </c>
       <c r="G10" s="17">
-        <v>13736.213405168322</v>
+        <v>13105.472946166339</v>
       </c>
       <c r="H10" s="17">
-        <v>68058.953384150693</v>
+        <v>64933.817349167279</v>
       </c>
       <c r="I10" s="17">
-        <v>66579.95494943182</v>
+        <v>64967.946328742102</v>
       </c>
       <c r="J10" s="17">
-        <f t="shared" si="0"/>
-        <v>68058.953384150693</v>
+        <v>66545.825969857004</v>
       </c>
       <c r="K10" s="17">
-        <f t="shared" si="1"/>
-        <v>1478.9984347188729</v>
+        <v>1577.8796411149015</v>
       </c>
       <c r="L10" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1612.0086206897299</v>
       </c>
       <c r="M10" s="6"/>
     </row>
@@ -2639,25 +2614,22 @@
         <v>2922.9609943961846</v>
       </c>
       <c r="G11" s="17">
-        <v>16659.174399564508</v>
+        <v>16028.433940562523</v>
       </c>
       <c r="H11" s="17">
-        <v>81013.727792332196</v>
+        <v>77946.430780630748</v>
       </c>
       <c r="I11" s="17">
-        <v>80794.34280972142</v>
+        <v>79182.33418903171</v>
       </c>
       <c r="J11" s="17">
-        <f t="shared" si="0"/>
-        <v>81013.727792332196</v>
+        <v>79558.439401320473</v>
       </c>
       <c r="K11" s="17">
-        <f t="shared" si="1"/>
-        <v>219.38498261077621</v>
+        <v>376.10521228876314</v>
       </c>
       <c r="L11" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1612.0086206897299</v>
       </c>
       <c r="M11" s="6"/>
     </row>
@@ -2681,25 +2653,22 @@
         <v>6082.9964164527191</v>
       </c>
       <c r="G12" s="17">
-        <v>22742.170816017227</v>
+        <v>22111.430357015241</v>
       </c>
       <c r="H12" s="17">
-        <v>98792.667403890053</v>
+        <v>96052.712063282306</v>
       </c>
       <c r="I12" s="17">
-        <v>107219.06042579077</v>
+        <v>105607.05180510106</v>
       </c>
       <c r="J12" s="17">
-        <f t="shared" si="0"/>
-        <v>98792.667403890053</v>
+        <v>97664.720683972031</v>
       </c>
       <c r="K12" s="17">
-        <f t="shared" si="1"/>
-        <v>-8426.3930219007161</v>
+        <v>-7942.3311211290275</v>
       </c>
       <c r="L12" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1612.0086206897299</v>
       </c>
       <c r="M12" s="6"/>
     </row>
@@ -2723,25 +2692,22 @@
         <v>5666.0899507975491</v>
       </c>
       <c r="G13" s="17">
-        <v>28408.260766814776</v>
+        <v>27777.520307812789</v>
       </c>
       <c r="H13" s="17">
-        <v>123165.15199465382</v>
+        <v>120430.55148039405</v>
       </c>
       <c r="I13" s="17">
-        <v>131784.6202724032</v>
+        <v>130172.61165171349</v>
       </c>
       <c r="J13" s="17">
-        <f t="shared" si="0"/>
-        <v>123165.15199465382</v>
+        <v>122042.56010108377</v>
       </c>
       <c r="K13" s="17">
-        <f t="shared" si="1"/>
-        <v>-8619.4682777493872</v>
+        <v>-8130.0515506297234</v>
       </c>
       <c r="L13" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1612.0086206897299</v>
       </c>
       <c r="M13" s="6"/>
     </row>
@@ -2765,25 +2731,22 @@
         <v>8889.4202557285862</v>
       </c>
       <c r="G14" s="17">
-        <v>37297.681022543358</v>
+        <v>36666.940563541371</v>
       </c>
       <c r="H14" s="17">
-        <v>144187.2438233509</v>
+        <v>141748.89575832232</v>
       </c>
       <c r="I14" s="17">
-        <v>166149.786436119</v>
+        <v>164537.77781542929</v>
       </c>
       <c r="J14" s="17">
-        <f t="shared" si="0"/>
-        <v>144187.2438233509</v>
+        <v>143360.90437901206</v>
       </c>
       <c r="K14" s="17">
-        <f t="shared" si="1"/>
-        <v>-21962.542612768098</v>
+        <v>-21176.873436417227</v>
       </c>
       <c r="L14" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1612.0086206897299</v>
       </c>
       <c r="M14" s="6"/>
     </row>
@@ -2807,25 +2770,22 @@
         <v>11773.832314300978</v>
       </c>
       <c r="G15" s="17">
-        <v>49071.513336844335</v>
+        <v>48440.772877842348</v>
       </c>
       <c r="H15" s="17">
-        <v>171809.67129323675</v>
+        <v>169601.31651541271</v>
       </c>
       <c r="I15" s="17">
-        <v>207372.4454133574</v>
+        <v>205760.43679266769</v>
       </c>
       <c r="J15" s="17">
-        <f t="shared" si="0"/>
-        <v>171809.67129323675</v>
+        <v>171213.32513610244</v>
       </c>
       <c r="K15" s="17">
-        <f t="shared" si="1"/>
-        <v>-35562.774120120652</v>
+        <v>-34547.111656565248</v>
       </c>
       <c r="L15" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1612.0086206897299</v>
       </c>
       <c r="M15" s="6"/>
     </row>
@@ -2849,25 +2809,22 @@
         <v>11525.836965491915</v>
       </c>
       <c r="G16" s="17">
-        <v>60597.35030233625</v>
+        <v>59966.609843334263</v>
       </c>
       <c r="H16" s="17">
-        <v>220341.65594940397</v>
+        <v>218048.18277743549</v>
       </c>
       <c r="I16" s="17">
-        <v>249282.23174078748</v>
+        <v>247670.22312009777</v>
       </c>
       <c r="J16" s="17">
-        <f t="shared" si="0"/>
-        <v>220341.65594940397</v>
+        <v>219660.19139812523</v>
       </c>
       <c r="K16" s="17">
-        <f t="shared" si="1"/>
-        <v>-28940.575791383511</v>
+        <v>-28010.03172197254</v>
       </c>
       <c r="L16" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1612.0086206897299</v>
       </c>
       <c r="M16" s="6"/>
     </row>
@@ -2891,25 +2848,22 @@
         <v>6063.8590016327171</v>
       </c>
       <c r="G17" s="17">
-        <v>66661.209303968964</v>
+        <v>66030.468844966977</v>
       </c>
       <c r="H17" s="17">
-        <v>273952.24679163739</v>
+        <v>271360.14311259874</v>
       </c>
       <c r="I17" s="17">
-        <v>274202.38868168578</v>
+        <v>272590.3800609961</v>
       </c>
       <c r="J17" s="17">
-        <f t="shared" si="0"/>
-        <v>273952.24679163739</v>
+        <v>272972.15173328848</v>
       </c>
       <c r="K17" s="17">
-        <f t="shared" si="1"/>
-        <v>-250.14189004839864</v>
+        <v>381.77167229237966</v>
       </c>
       <c r="L17" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1612.0086206897299</v>
       </c>
       <c r="M17" s="6"/>
     </row>
@@ -2933,25 +2887,22 @@
         <v>7482.5677262102445</v>
       </c>
       <c r="G18" s="17">
-        <v>74143.777030179204</v>
+        <v>73513.036571177217</v>
       </c>
       <c r="H18" s="17">
-        <v>287119.55006387713</v>
+        <v>284677.02657708438</v>
       </c>
       <c r="I18" s="17">
-        <v>303178.40750518732</v>
+        <v>301566.39888449764</v>
       </c>
       <c r="J18" s="17">
-        <f t="shared" si="0"/>
-        <v>287119.55006387713</v>
+        <v>286289.03519777412</v>
       </c>
       <c r="K18" s="17">
-        <f t="shared" si="1"/>
-        <v>-16058.857441310189</v>
+        <v>-15277.363686723518</v>
       </c>
       <c r="L18" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1612.0086206897299</v>
       </c>
       <c r="M18" s="6"/>
     </row>
@@ -2975,25 +2926,22 @@
         <v>8532.4645825653952</v>
       </c>
       <c r="G19" s="17">
-        <v>82676.241612744605</v>
+        <v>82045.501153742618</v>
       </c>
       <c r="H19" s="17">
-        <v>306084.80523157853</v>
+        <v>303749.6716214951</v>
       </c>
       <c r="I19" s="17">
-        <v>334767.38287410734</v>
+        <v>333155.37425341766</v>
       </c>
       <c r="J19" s="17">
-        <f t="shared" si="0"/>
-        <v>306084.80523157853</v>
+        <v>305361.68024218484</v>
       </c>
       <c r="K19" s="17">
-        <f t="shared" si="1"/>
-        <v>-28682.577642528806</v>
+        <v>-27793.694011232816</v>
       </c>
       <c r="L19" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1612.0086206897299</v>
       </c>
       <c r="M19" s="6"/>
     </row>
@@ -3017,25 +2965,22 @@
         <v>11834.062764163693</v>
       </c>
       <c r="G20" s="17">
-        <v>94510.304376908301</v>
+        <v>93879.563917906315</v>
       </c>
       <c r="H20" s="17">
-        <v>316394.97942580283</v>
+        <v>314283.43068130728</v>
       </c>
       <c r="I20" s="17">
-        <v>374384.62958044704</v>
+        <v>372772.62095975736</v>
       </c>
       <c r="J20" s="17">
-        <f t="shared" si="0"/>
-        <v>316394.97942580283</v>
+        <v>315895.43930199702</v>
       </c>
       <c r="K20" s="17">
-        <f t="shared" si="1"/>
-        <v>-57989.650154644216</v>
+        <v>-56877.181657760346</v>
       </c>
       <c r="L20" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1612.0086206897299</v>
       </c>
       <c r="M20" s="7"/>
       <c r="P20" s="3"/>
@@ -3060,25 +3005,22 @@
         <v>11964.754614315836</v>
       </c>
       <c r="G21" s="17">
-        <v>106475.05899122414</v>
+        <v>105844.31853222215</v>
       </c>
       <c r="H21" s="17">
-        <v>351303.79923768999</v>
+        <v>349222.73422885453</v>
       </c>
       <c r="I21" s="17">
-        <v>413861.13978648768</v>
+        <v>412249.13116579794</v>
       </c>
       <c r="J21" s="17">
-        <f t="shared" si="0"/>
-        <v>351303.79923768999</v>
+        <v>350834.74284954427</v>
       </c>
       <c r="K21" s="17">
-        <f t="shared" si="1"/>
-        <v>-62557.340548797685</v>
+        <v>-61414.388316253666</v>
       </c>
       <c r="L21" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1612.0086206897299</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -3101,25 +3043,22 @@
         <v>10109.743535381918</v>
       </c>
       <c r="G22" s="17">
-        <v>116584.80252660606</v>
+        <v>115954.06206760407</v>
       </c>
       <c r="H22" s="17">
-        <v>405748.92693941563</v>
+        <v>403553.76720271731</v>
       </c>
       <c r="I22" s="17">
-        <v>449045.97951015388</v>
+        <v>447433.97088946414</v>
       </c>
       <c r="J22" s="17">
-        <f t="shared" si="0"/>
-        <v>405748.92693941563</v>
+        <v>405165.77582340705</v>
       </c>
       <c r="K22" s="17">
-        <f t="shared" si="1"/>
-        <v>-43297.052570738248</v>
+        <v>-42268.195066057087</v>
       </c>
       <c r="L22" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1612.0086206897299</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -3142,25 +3081,22 @@
         <v>9702.4673340427144</v>
       </c>
       <c r="G23" s="17">
-        <v>126287.26986064877</v>
+        <v>125656.52940164678</v>
       </c>
       <c r="H23" s="17">
-        <v>438662.62417888164</v>
+        <v>436471.72825384577</v>
       </c>
       <c r="I23" s="17">
-        <v>482747.79115322325</v>
+        <v>481135.78253253351</v>
       </c>
       <c r="J23" s="17">
-        <f t="shared" si="0"/>
-        <v>438662.62417888164</v>
+        <v>438083.73687453551</v>
       </c>
       <c r="K23" s="17">
-        <f t="shared" si="1"/>
-        <v>-44085.166974341613</v>
+        <v>-43052.045657998009</v>
       </c>
       <c r="L23" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1612.0086206897299</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -3183,25 +3119,22 @@
         <v>6332.7595334516254</v>
       </c>
       <c r="G24" s="17">
-        <v>132620.02939410039</v>
+        <v>131989.28893509842</v>
       </c>
       <c r="H24" s="17">
-        <v>505419.40017620381</v>
+        <v>503015.62703641423</v>
       </c>
       <c r="I24" s="17">
-        <v>506882.15109478153</v>
+        <v>505270.14247409179</v>
       </c>
       <c r="J24" s="17">
-        <f t="shared" si="0"/>
-        <v>505419.40017620381</v>
+        <v>504627.63565710397</v>
       </c>
       <c r="K24" s="17">
-        <f t="shared" si="1"/>
-        <v>-1462.7509185777162</v>
+        <v>-642.50681698782137</v>
       </c>
       <c r="L24" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1612.0086206897299</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -3224,25 +3157,22 @@
         <v>7248.0275409570841</v>
       </c>
       <c r="G25" s="17">
-        <v>139868.05693505748</v>
+        <v>139237.31647605551</v>
       </c>
       <c r="H25" s="17">
-        <v>514396.84385754645</v>
+        <v>512077.15122354834</v>
       </c>
       <c r="I25" s="17">
-        <v>533538.43397280865</v>
+        <v>531926.42535211891</v>
       </c>
       <c r="J25" s="17">
-        <f t="shared" si="0"/>
-        <v>514396.84385754645</v>
+        <v>513689.15984423808</v>
       </c>
       <c r="K25" s="17">
-        <f t="shared" si="1"/>
-        <v>-19141.590115262195</v>
+        <v>-18237.265507880831</v>
       </c>
       <c r="L25" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1612.0086206897299</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -3265,25 +3195,22 @@
         <v>6625.2376674645011</v>
       </c>
       <c r="G26" s="17">
-        <v>146493.29460252199</v>
+        <v>145862.55414352001</v>
       </c>
       <c r="H26" s="17">
-        <v>544398.08812918328</v>
+        <v>542054.13169815298</v>
       </c>
       <c r="I26" s="17">
-        <v>558159.12892922503</v>
+        <v>556547.12030853529</v>
       </c>
       <c r="J26" s="17">
-        <f t="shared" si="0"/>
-        <v>544398.08812918328</v>
+        <v>543666.14031884272</v>
       </c>
       <c r="K26" s="17">
-        <f t="shared" si="1"/>
-        <v>-13761.040800041752</v>
+        <v>-12880.979989692569</v>
       </c>
       <c r="L26" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1612.0086206897299</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -474,6 +474,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -483,7 +486,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -555,6 +558,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>556547.12030853529</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>582515.92990993394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -597,7 +603,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -669,6 +675,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -678,7 +687,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -750,6 +759,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>543666.14031884272</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>555010.76881737297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -792,7 +804,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -864,6 +876,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -873,7 +888,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -945,6 +960,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>-12880.979989692569</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-27505.161092560971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -966,11 +984,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="254294656"/>
-        <c:axId val="254316928"/>
+        <c:axId val="69851776"/>
+        <c:axId val="69952256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="254294656"/>
+        <c:axId val="69851776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1013,14 +1031,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254316928"/>
+        <c:crossAx val="69952256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="254316928"/>
+        <c:axId val="69952256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,7 +1089,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254294656"/>
+        <c:crossAx val="69851776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1197,6 +1215,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1231,7 +1250,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1303,6 +1322,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>24620.694956416326</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25968.8096013986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1317,8 +1339,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="265266304"/>
-        <c:axId val="264989696"/>
+        <c:axId val="616615936"/>
+        <c:axId val="616343808"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1343,7 +1365,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1415,6 +1437,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1424,7 +1449,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1496,6 +1521,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>3.7161979980468751</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6159379882812499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1512,11 +1540,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="256396672"/>
-        <c:axId val="264988160"/>
+        <c:axId val="573785216"/>
+        <c:axId val="616341888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="256396672"/>
+        <c:axId val="573785216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,14 +1587,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264988160"/>
+        <c:crossAx val="616341888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="264988160"/>
+        <c:axId val="616341888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1617,12 +1645,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256396672"/>
+        <c:crossAx val="573785216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="264989696"/>
+        <c:axId val="616343808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1659,12 +1687,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265266304"/>
+        <c:crossAx val="616615936"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="265266304"/>
+        <c:axId val="616615936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1673,7 +1701,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264989696"/>
+        <c:crossAx val="616343808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2082,7 +2110,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3213,6 +3241,44 @@
         <v>1612.0086206897299</v>
       </c>
     </row>
+    <row r="27" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>45044</v>
+      </c>
+      <c r="B27" s="15">
+        <v>3.6159379882812499</v>
+      </c>
+      <c r="C27" s="15">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D27" s="16">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E27" s="16">
+        <v>25968.8096013986</v>
+      </c>
+      <c r="F27" s="17">
+        <v>7181.7629853055796</v>
+      </c>
+      <c r="G27" s="17">
+        <v>153044.31712882558</v>
+      </c>
+      <c r="H27" s="17">
+        <v>553398.76019668323</v>
+      </c>
+      <c r="I27" s="17">
+        <v>582515.92990993394</v>
+      </c>
+      <c r="J27" s="17">
+        <v>555010.76881737297</v>
+      </c>
+      <c r="K27" s="17">
+        <v>-27505.161092560971</v>
+      </c>
+      <c r="L27" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -477,6 +477,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -486,7 +492,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -561,6 +567,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>582515.92990993394</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>616108.03074959258</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>645102.94959475833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -603,7 +615,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -678,6 +690,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -687,7 +705,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -762,6 +780,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>555010.76881737297</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>563296.52850202331</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>618052.615835384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -804,7 +828,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -879,6 +903,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -888,7 +918,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -963,6 +993,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-27505.161092560971</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-52811.502247569268</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-27050.333759374334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -984,11 +1020,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69851776"/>
-        <c:axId val="69952256"/>
+        <c:axId val="49951104"/>
+        <c:axId val="49953408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="69851776"/>
+        <c:axId val="49951104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,14 +1067,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69952256"/>
+        <c:crossAx val="49953408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="69952256"/>
+        <c:axId val="49953408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,7 +1125,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69851776"/>
+        <c:crossAx val="49951104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1250,7 +1286,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1325,6 +1361,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>25968.8096013986</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33592.100839658677</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28994.918845165728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1339,8 +1381,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="616615936"/>
-        <c:axId val="616343808"/>
+        <c:axId val="503441664"/>
+        <c:axId val="503439744"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1365,7 +1407,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1440,6 +1482,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1449,7 +1497,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1524,6 +1572,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>3.6159379882812499</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.4505849609374999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.608843017578125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1540,11 +1594,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="573785216"/>
-        <c:axId val="616341888"/>
+        <c:axId val="450800256"/>
+        <c:axId val="481428224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="573785216"/>
+        <c:axId val="450800256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1587,14 +1641,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616341888"/>
+        <c:crossAx val="481428224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="616341888"/>
+        <c:axId val="481428224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1645,12 +1699,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573785216"/>
+        <c:crossAx val="450800256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="616343808"/>
+        <c:axId val="503439744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1687,12 +1741,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616615936"/>
+        <c:crossAx val="503441664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="616615936"/>
+        <c:axId val="503441664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1701,7 +1755,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="616343808"/>
+        <c:crossAx val="503439744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2110,7 +2164,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AA29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3279,6 +3333,82 @@
         <v>1612.0086206897299</v>
       </c>
     </row>
+    <row r="28" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
+        <v>45077</v>
+      </c>
+      <c r="B28" s="15">
+        <v>3.4505849609374999</v>
+      </c>
+      <c r="C28" s="15">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D28" s="16">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E28" s="16">
+        <v>33592.100839658677</v>
+      </c>
+      <c r="F28" s="17">
+        <v>9735.1901836759698</v>
+      </c>
+      <c r="G28" s="17">
+        <v>162779.50731250155</v>
+      </c>
+      <c r="H28" s="17">
+        <v>561684.51988133357</v>
+      </c>
+      <c r="I28" s="17">
+        <v>616108.03074959258</v>
+      </c>
+      <c r="J28" s="17">
+        <v>563296.52850202331</v>
+      </c>
+      <c r="K28" s="17">
+        <v>-52811.502247569268</v>
+      </c>
+      <c r="L28" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
+        <v>45107</v>
+      </c>
+      <c r="B29" s="15">
+        <v>3.608843017578125</v>
+      </c>
+      <c r="C29" s="15">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D29" s="16">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E29" s="16">
+        <v>28994.918845165728</v>
+      </c>
+      <c r="F29" s="17">
+        <v>8034.4084527744462</v>
+      </c>
+      <c r="G29" s="17">
+        <v>170813.915765276</v>
+      </c>
+      <c r="H29" s="17">
+        <v>616440.60721469426</v>
+      </c>
+      <c r="I29" s="17">
+        <v>645102.94959475833</v>
+      </c>
+      <c r="J29" s="17">
+        <v>618052.615835384</v>
+      </c>
+      <c r="K29" s="17">
+        <v>-27050.333759374334</v>
+      </c>
+      <c r="L29" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -483,6 +483,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -492,7 +495,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -573,6 +576,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>645102.94959475833</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>672172.38558687002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -615,7 +621,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -696,6 +702,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -705,7 +714,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -786,6 +795,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>618052.615835384</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>645122.05182749568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -828,7 +840,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -909,6 +921,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,7 +933,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -998,6 +1013,9 @@
                   <c:v>-52811.502247569268</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>-27050.333759374334</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>-27050.333759374334</c:v>
                 </c:pt>
               </c:numCache>
@@ -1020,11 +1038,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="49951104"/>
-        <c:axId val="49953408"/>
+        <c:axId val="177659264"/>
+        <c:axId val="356452608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="49951104"/>
+        <c:axId val="177659264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1067,14 +1085,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49953408"/>
+        <c:crossAx val="356452608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="49953408"/>
+        <c:axId val="356452608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1125,7 +1143,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49951104"/>
+        <c:crossAx val="177659264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1286,7 +1304,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1367,6 +1385,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>28994.918845165728</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27069.435992111685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1381,8 +1402,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="503441664"/>
-        <c:axId val="503439744"/>
+        <c:axId val="593528704"/>
+        <c:axId val="593527168"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1407,7 +1428,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1488,6 +1509,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1497,7 +1521,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1577,6 +1601,9 @@
                   <c:v>3.4505849609374999</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>3.608843017578125</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>3.608843017578125</c:v>
                 </c:pt>
               </c:numCache>
@@ -1594,11 +1621,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="450800256"/>
-        <c:axId val="481428224"/>
+        <c:axId val="571360000"/>
+        <c:axId val="571361920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="450800256"/>
+        <c:axId val="571360000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1641,14 +1668,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481428224"/>
+        <c:crossAx val="571361920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="481428224"/>
+        <c:axId val="571361920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1699,12 +1726,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450800256"/>
+        <c:crossAx val="571360000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="503439744"/>
+        <c:axId val="593527168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1741,12 +1768,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503441664"/>
+        <c:crossAx val="593528704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="503441664"/>
+        <c:axId val="593528704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1755,7 +1782,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="503439744"/>
+        <c:crossAx val="593527168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2164,7 +2191,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA29"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3409,6 +3436,44 @@
         <v>1612.0086206897299</v>
       </c>
     </row>
+    <row r="30" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="14">
+        <v>45138</v>
+      </c>
+      <c r="B30" s="15">
+        <v>3.608843017578125</v>
+      </c>
+      <c r="C30" s="15">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D30" s="16">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E30" s="16">
+        <v>27069.435992111685</v>
+      </c>
+      <c r="F30" s="17">
+        <v>7500.8627031601491</v>
+      </c>
+      <c r="G30" s="17">
+        <v>178314.77846843615</v>
+      </c>
+      <c r="H30" s="17">
+        <v>643510.04320680595</v>
+      </c>
+      <c r="I30" s="17">
+        <v>672172.38558687002</v>
+      </c>
+      <c r="J30" s="17">
+        <v>645122.05182749568</v>
+      </c>
+      <c r="K30" s="17">
+        <v>-27050.333759374334</v>
+      </c>
+      <c r="L30" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -797,7 +797,7 @@
                   <c:v>618052.615835384</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>645122.05182749568</c:v>
+                  <c:v>648803.26686322526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1016,7 +1016,7 @@
                   <c:v>-27050.333759374334</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-27050.333759374334</c:v>
+                  <c:v>-23369.118723644759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1038,11 +1038,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="177659264"/>
-        <c:axId val="356452608"/>
+        <c:axId val="549545088"/>
+        <c:axId val="549546624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="177659264"/>
+        <c:axId val="549545088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1085,14 +1085,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356452608"/>
+        <c:crossAx val="549546624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="356452608"/>
+        <c:axId val="549546624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,7 +1143,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177659264"/>
+        <c:crossAx val="549545088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1402,8 +1402,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="593528704"/>
-        <c:axId val="593527168"/>
+        <c:axId val="555442560"/>
+        <c:axId val="555354752"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1604,7 +1604,7 @@
                   <c:v>3.608843017578125</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.608843017578125</c:v>
+                  <c:v>3.6303940429687498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1621,11 +1621,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="571360000"/>
-        <c:axId val="571361920"/>
+        <c:axId val="549637120"/>
+        <c:axId val="555352832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="571360000"/>
+        <c:axId val="549637120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1668,14 +1668,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="571361920"/>
+        <c:crossAx val="555352832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="571361920"/>
+        <c:axId val="555352832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1726,12 +1726,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="571360000"/>
+        <c:crossAx val="549637120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="593527168"/>
+        <c:axId val="555354752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1768,12 +1768,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593528704"/>
+        <c:crossAx val="555442560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="593528704"/>
+        <c:axId val="555442560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1782,7 +1782,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="593527168"/>
+        <c:crossAx val="555354752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3441,7 +3441,7 @@
         <v>45138</v>
       </c>
       <c r="B30" s="15">
-        <v>3.608843017578125</v>
+        <v>3.6303940429687498</v>
       </c>
       <c r="C30" s="15">
         <v>22.409999849999998</v>
@@ -3453,22 +3453,22 @@
         <v>27069.435992111685</v>
       </c>
       <c r="F30" s="17">
-        <v>7500.8627031601491</v>
+        <v>7456.3355029019631</v>
       </c>
       <c r="G30" s="17">
-        <v>178314.77846843615</v>
+        <v>178270.25126817796</v>
       </c>
       <c r="H30" s="17">
-        <v>643510.04320680595</v>
+        <v>647191.25824253552</v>
       </c>
       <c r="I30" s="17">
         <v>672172.38558687002</v>
       </c>
       <c r="J30" s="17">
-        <v>645122.05182749568</v>
+        <v>648803.26686322526</v>
       </c>
       <c r="K30" s="17">
-        <v>-27050.333759374334</v>
+        <v>-23369.118723644759</v>
       </c>
       <c r="L30" s="16">
         <v>1612.0086206897299</v>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -486,6 +486,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -495,7 +498,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -579,6 +582,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>672172.38558687002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>703977.38461878558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -621,7 +627,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -705,6 +711,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -714,7 +723,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -798,6 +807,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>648803.26686322526</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>636512.23137454153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -840,7 +852,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -924,6 +936,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -933,7 +948,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1017,6 +1032,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-23369.118723644759</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-67465.153244244051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1038,11 +1056,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="549545088"/>
-        <c:axId val="549546624"/>
+        <c:axId val="89892352"/>
+        <c:axId val="90329088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="549545088"/>
+        <c:axId val="89892352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1085,14 +1103,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549546624"/>
+        <c:crossAx val="90329088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="549546624"/>
+        <c:axId val="90329088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,7 +1161,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549545088"/>
+        <c:crossAx val="89892352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1304,7 +1322,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1388,6 +1406,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>27069.435992111685</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31804.999031915606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1402,8 +1423,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="555442560"/>
-        <c:axId val="555354752"/>
+        <c:axId val="502913280"/>
+        <c:axId val="502911744"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1428,7 +1449,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1512,6 +1533,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1521,7 +1545,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1605,6 +1629,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>3.6303940429687498</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3830390625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1621,11 +1648,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="549637120"/>
-        <c:axId val="555352832"/>
+        <c:axId val="466637568"/>
+        <c:axId val="466639488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="549637120"/>
+        <c:axId val="466637568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1668,14 +1695,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555352832"/>
+        <c:crossAx val="466639488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="555352832"/>
+        <c:axId val="466639488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1726,12 +1753,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549637120"/>
+        <c:crossAx val="466637568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="555354752"/>
+        <c:axId val="502911744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1768,12 +1795,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555442560"/>
+        <c:crossAx val="502913280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="555442560"/>
+        <c:axId val="502913280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1782,7 +1809,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="555354752"/>
+        <c:crossAx val="502911744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2191,7 +2218,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3474,6 +3501,44 @@
         <v>1612.0086206897299</v>
       </c>
     </row>
+    <row r="31" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="14">
+        <v>45169</v>
+      </c>
+      <c r="B31" s="15">
+        <v>3.3830390625</v>
+      </c>
+      <c r="C31" s="15">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D31" s="16">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E31" s="16">
+        <v>31804.999031915606</v>
+      </c>
+      <c r="F31" s="17">
+        <v>9401.3100186943539</v>
+      </c>
+      <c r="G31" s="17">
+        <v>187671.56128687231</v>
+      </c>
+      <c r="H31" s="17">
+        <v>634900.22275385179</v>
+      </c>
+      <c r="I31" s="17">
+        <v>703977.38461878558</v>
+      </c>
+      <c r="J31" s="17">
+        <v>636512.23137454153</v>
+      </c>
+      <c r="K31" s="17">
+        <v>-67465.153244244051</v>
+      </c>
+      <c r="L31" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -489,6 +489,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -498,7 +501,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -585,6 +588,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>703977.38461878558</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>741075.91602108208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -627,7 +633,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -714,6 +720,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -723,7 +732,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -810,6 +819,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>636512.23137454153</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>645108.14440639422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -852,7 +864,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -939,6 +951,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -948,7 +963,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1035,6 +1050,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-67465.153244244051</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-95967.771614687867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1056,11 +1074,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89892352"/>
-        <c:axId val="90329088"/>
+        <c:axId val="296955904"/>
+        <c:axId val="296958208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89892352"/>
+        <c:axId val="296955904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1103,14 +1121,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90329088"/>
+        <c:crossAx val="296958208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="90329088"/>
+        <c:axId val="296958208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1161,7 +1179,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89892352"/>
+        <c:crossAx val="296955904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1322,7 +1340,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1409,6 +1427,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>31804.999031915606</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37098.531402296496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1423,8 +1444,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="502913280"/>
-        <c:axId val="502911744"/>
+        <c:axId val="453791744"/>
+        <c:axId val="451193088"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1449,7 +1470,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1536,6 +1557,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1545,7 +1569,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1632,6 +1656,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>3.3830390625</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.2311640625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1648,11 +1675,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="466637568"/>
-        <c:axId val="466639488"/>
+        <c:axId val="451180416"/>
+        <c:axId val="451191552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="466637568"/>
+        <c:axId val="451180416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1695,14 +1722,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466639488"/>
+        <c:crossAx val="451191552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="466639488"/>
+        <c:axId val="451191552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,12 +1780,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466637568"/>
+        <c:crossAx val="451180416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="502911744"/>
+        <c:axId val="451193088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1795,12 +1822,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502913280"/>
+        <c:crossAx val="453791744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="502913280"/>
+        <c:axId val="453791744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1809,7 +1836,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502911744"/>
+        <c:crossAx val="451193088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2218,7 +2245,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3539,6 +3566,44 @@
         <v>1612.0086206897299</v>
       </c>
     </row>
+    <row r="32" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="14">
+        <v>45197</v>
+      </c>
+      <c r="B32" s="15">
+        <v>3.2311640625</v>
+      </c>
+      <c r="C32" s="15">
+        <v>19.25</v>
+      </c>
+      <c r="D32" s="16">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E32" s="16">
+        <v>37098.531402296496</v>
+      </c>
+      <c r="F32" s="17">
+        <v>11481.475618292439</v>
+      </c>
+      <c r="G32" s="17">
+        <v>199153.03690516474</v>
+      </c>
+      <c r="H32" s="17">
+        <v>643496.13578570448</v>
+      </c>
+      <c r="I32" s="17">
+        <v>741075.91602108208</v>
+      </c>
+      <c r="J32" s="17">
+        <v>645108.14440639422</v>
+      </c>
+      <c r="K32" s="17">
+        <v>-95967.771614687867</v>
+      </c>
+      <c r="L32" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -492,6 +492,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -501,7 +504,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -591,6 +594,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>741075.91602108208</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>779004.29652438569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -633,7 +639,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -723,6 +729,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -732,7 +741,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -822,6 +831,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>645108.14440639422</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>662932.42452916608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -864,7 +876,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -954,6 +966,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -963,7 +978,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1053,6 +1068,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-95967.771614687867</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-116071.87199521961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1074,11 +1092,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="296955904"/>
-        <c:axId val="296958208"/>
+        <c:axId val="40719488"/>
+        <c:axId val="40752256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="296955904"/>
+        <c:axId val="40719488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1121,14 +1139,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296958208"/>
+        <c:crossAx val="40752256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="296958208"/>
+        <c:axId val="40752256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1179,7 +1197,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296955904"/>
+        <c:crossAx val="40719488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1340,7 +1358,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1430,6 +1448,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>37098.531402296496</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37928.380503303619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1444,8 +1465,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="453791744"/>
-        <c:axId val="451193088"/>
+        <c:axId val="447620992"/>
+        <c:axId val="447552896"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1470,7 +1491,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1560,6 +1581,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1569,7 +1593,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1659,6 +1683,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>3.2311640625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.1302160644531249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1675,11 +1702,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451180416"/>
-        <c:axId val="451191552"/>
+        <c:axId val="444488320"/>
+        <c:axId val="447551360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451180416"/>
+        <c:axId val="444488320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1722,14 +1749,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451191552"/>
+        <c:crossAx val="447551360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451191552"/>
+        <c:axId val="447551360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,12 +1807,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451180416"/>
+        <c:crossAx val="444488320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="451193088"/>
+        <c:axId val="447552896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1822,12 +1849,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453791744"/>
+        <c:crossAx val="447620992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="453791744"/>
+        <c:axId val="447620992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1836,7 +1863,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451193088"/>
+        <c:crossAx val="447552896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2245,7 +2272,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA32"/>
+  <dimension ref="A1:AA33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3604,6 +3631,44 @@
         <v>1612.0086206897299</v>
       </c>
     </row>
+    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="14">
+        <v>45230</v>
+      </c>
+      <c r="B33" s="15">
+        <v>3.1302160644531249</v>
+      </c>
+      <c r="C33" s="15">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D33" s="16">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E33" s="16">
+        <v>37928.380503303619</v>
+      </c>
+      <c r="F33" s="17">
+        <v>12116.857022753164</v>
+      </c>
+      <c r="G33" s="17">
+        <v>211269.8939279179</v>
+      </c>
+      <c r="H33" s="17">
+        <v>661320.41590847634</v>
+      </c>
+      <c r="I33" s="17">
+        <v>779004.29652438569</v>
+      </c>
+      <c r="J33" s="17">
+        <v>662932.42452916608</v>
+      </c>
+      <c r="K33" s="17">
+        <v>-116071.87199521961</v>
+      </c>
+      <c r="L33" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -495,6 +495,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -504,7 +510,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -597,6 +603,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>779004.29652438569</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>818906.47496209387</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>858349.94796120108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -639,7 +651,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -732,6 +744,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -741,7 +759,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -834,6 +852,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>662932.42452916608</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>689130.78967867827</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>721432.50510384492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -876,7 +900,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -969,6 +993,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -978,7 +1008,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1071,6 +1101,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-116071.87199521961</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-129775.6852834156</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-136917.44285735616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1092,11 +1128,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40719488"/>
-        <c:axId val="40752256"/>
+        <c:axId val="494901120"/>
+        <c:axId val="494925312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="40719488"/>
+        <c:axId val="494901120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1139,14 +1175,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40752256"/>
+        <c:crossAx val="494925312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="40752256"/>
+        <c:axId val="494925312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1197,7 +1233,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40719488"/>
+        <c:crossAx val="494901120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1358,7 +1394,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1451,6 +1487,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>37928.380503303619</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39902.178437708179</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39443.472999107165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1465,8 +1507,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="447620992"/>
-        <c:axId val="447552896"/>
+        <c:axId val="41253504"/>
+        <c:axId val="41251968"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1491,7 +1533,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1584,6 +1626,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1593,7 +1641,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1686,6 +1734,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3.1302160644531249</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0653520507812502</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.0335100097656249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1702,11 +1756,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="444488320"/>
-        <c:axId val="447551360"/>
+        <c:axId val="561579520"/>
+        <c:axId val="561581440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="444488320"/>
+        <c:axId val="561579520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1749,14 +1803,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447551360"/>
+        <c:crossAx val="561581440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="447551360"/>
+        <c:axId val="561581440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1807,12 +1861,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444488320"/>
+        <c:crossAx val="561579520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="447552896"/>
+        <c:axId val="41251968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1849,12 +1903,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447620992"/>
+        <c:crossAx val="41253504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="447620992"/>
+        <c:axId val="41253504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1863,7 +1917,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="447552896"/>
+        <c:crossAx val="41251968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2272,7 +2326,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA33"/>
+  <dimension ref="A1:AA35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3669,6 +3723,82 @@
         <v>1612.0086206897299</v>
       </c>
     </row>
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="14">
+        <v>45260</v>
+      </c>
+      <c r="B34" s="15">
+        <v>3.0653520507812502</v>
+      </c>
+      <c r="C34" s="15">
+        <v>17.93000031</v>
+      </c>
+      <c r="D34" s="16">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E34" s="16">
+        <v>39902.178437708179</v>
+      </c>
+      <c r="F34" s="17">
+        <v>13017.160109729817</v>
+      </c>
+      <c r="G34" s="17">
+        <v>224287.05403764773</v>
+      </c>
+      <c r="H34" s="17">
+        <v>687518.78105798853</v>
+      </c>
+      <c r="I34" s="17">
+        <v>818906.47496209387</v>
+      </c>
+      <c r="J34" s="17">
+        <v>689130.78967867827</v>
+      </c>
+      <c r="K34" s="17">
+        <v>-129775.6852834156</v>
+      </c>
+      <c r="L34" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="14">
+        <v>45289</v>
+      </c>
+      <c r="B35" s="15">
+        <v>3.0335100097656249</v>
+      </c>
+      <c r="C35" s="15">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D35" s="16">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E35" s="16">
+        <v>39443.472999107165</v>
+      </c>
+      <c r="F35" s="17">
+        <v>13002.585411661341</v>
+      </c>
+      <c r="G35" s="17">
+        <v>237289.63944930906</v>
+      </c>
+      <c r="H35" s="17">
+        <v>719820.49648315518</v>
+      </c>
+      <c r="I35" s="17">
+        <v>858349.94796120108</v>
+      </c>
+      <c r="J35" s="17">
+        <v>721432.50510384492</v>
+      </c>
+      <c r="K35" s="17">
+        <v>-136917.44285735616</v>
+      </c>
+      <c r="L35" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -501,6 +501,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -510,7 +513,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -609,6 +612,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>858349.94796120108</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>905578.61378933233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -651,7 +657,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -750,6 +756,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -759,7 +768,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -858,6 +867,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>721432.50510384492</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>673112.46553766658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -900,7 +912,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -999,6 +1011,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1008,7 +1023,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1107,6 +1122,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-136917.44285735616</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-232466.14825166576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1128,11 +1146,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494901120"/>
-        <c:axId val="494925312"/>
+        <c:axId val="404257792"/>
+        <c:axId val="447947520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494901120"/>
+        <c:axId val="404257792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1175,14 +1193,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494925312"/>
+        <c:crossAx val="447947520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494925312"/>
+        <c:axId val="447947520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1233,7 +1251,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494901120"/>
+        <c:crossAx val="404257792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1394,7 +1412,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1493,6 +1511,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>39443.472999107165</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>47228.665828131299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1507,8 +1528,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="41253504"/>
-        <c:axId val="41251968"/>
+        <c:axId val="487793792"/>
+        <c:axId val="458295552"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1533,7 +1554,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1632,6 +1653,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1641,7 +1665,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1740,6 +1764,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>3.0335100097656249</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.6308430175781252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1756,11 +1783,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="561579520"/>
-        <c:axId val="561581440"/>
+        <c:axId val="457934336"/>
+        <c:axId val="458294016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="561579520"/>
+        <c:axId val="457934336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1803,14 +1830,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561581440"/>
+        <c:crossAx val="458294016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="561581440"/>
+        <c:axId val="458294016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1861,12 +1888,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561579520"/>
+        <c:crossAx val="457934336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41251968"/>
+        <c:axId val="458295552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,12 +1930,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41253504"/>
+        <c:crossAx val="487793792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="41253504"/>
+        <c:axId val="487793792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1917,7 +1944,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41251968"/>
+        <c:crossAx val="458295552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2326,7 +2353,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA35"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3799,6 +3826,44 @@
         <v>1612.0086206897299</v>
       </c>
     </row>
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="14">
+        <v>45322</v>
+      </c>
+      <c r="B36" s="15">
+        <v>2.6308430175781252</v>
+      </c>
+      <c r="C36" s="15">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D36" s="16">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E36" s="16">
+        <v>47228.665828131299</v>
+      </c>
+      <c r="F36" s="17">
+        <v>17951.91332685771</v>
+      </c>
+      <c r="G36" s="17">
+        <v>255241.55277616676</v>
+      </c>
+      <c r="H36" s="17">
+        <v>671500.45691697684</v>
+      </c>
+      <c r="I36" s="17">
+        <v>905578.61378933233</v>
+      </c>
+      <c r="J36" s="17">
+        <v>673112.46553766658</v>
+      </c>
+      <c r="K36" s="17">
+        <v>-232466.14825166576</v>
+      </c>
+      <c r="L36" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -504,6 +504,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -513,7 +516,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -615,6 +618,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>905578.61378933233</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>943603.11211726349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -657,7 +663,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -759,6 +765,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -768,7 +777,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -870,6 +879,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>673112.46553766658</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>805929.10265798098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -912,7 +924,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1014,6 +1026,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1023,7 +1038,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1125,6 +1140,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-232466.14825166576</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-137674.0094592825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1146,11 +1164,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="404257792"/>
-        <c:axId val="447947520"/>
+        <c:axId val="92078080"/>
+        <c:axId val="92079616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="404257792"/>
+        <c:axId val="92078080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1193,14 +1211,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447947520"/>
+        <c:crossAx val="92079616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="447947520"/>
+        <c:axId val="92079616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1251,7 +1269,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404257792"/>
+        <c:crossAx val="92078080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1412,7 +1430,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1514,6 +1532,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>47228.665828131299</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38024.498327931113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1528,8 +1549,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="487793792"/>
-        <c:axId val="458295552"/>
+        <c:axId val="405009536"/>
+        <c:axId val="156087424"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1554,7 +1575,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1656,6 +1677,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1665,7 +1689,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1767,6 +1791,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>2.6308430175781252</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.0022250976562499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1783,11 +1810,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="457934336"/>
-        <c:axId val="458294016"/>
+        <c:axId val="92251648"/>
+        <c:axId val="92253568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="457934336"/>
+        <c:axId val="92251648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1830,14 +1857,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458294016"/>
+        <c:crossAx val="92253568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="458294016"/>
+        <c:axId val="92253568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1888,12 +1915,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457934336"/>
+        <c:crossAx val="92251648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="458295552"/>
+        <c:axId val="156087424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1930,12 +1957,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487793792"/>
+        <c:crossAx val="405009536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="487793792"/>
+        <c:axId val="405009536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1944,7 +1971,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="458295552"/>
+        <c:crossAx val="156087424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2353,7 +2380,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA36"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3864,6 +3891,44 @@
         <v>1612.0086206897299</v>
       </c>
     </row>
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="14">
+        <v>45351</v>
+      </c>
+      <c r="B37" s="15">
+        <v>3.0022250976562499</v>
+      </c>
+      <c r="C37" s="15">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D37" s="16">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E37" s="16">
+        <v>38024.498327931113</v>
+      </c>
+      <c r="F37" s="17">
+        <v>12665.438829891782</v>
+      </c>
+      <c r="G37" s="17">
+        <v>267906.99160605855</v>
+      </c>
+      <c r="H37" s="17">
+        <v>804317.09403729124</v>
+      </c>
+      <c r="I37" s="17">
+        <v>943603.11211726349</v>
+      </c>
+      <c r="J37" s="17">
+        <v>805929.10265798098</v>
+      </c>
+      <c r="K37" s="17">
+        <v>-137674.0094592825</v>
+      </c>
+      <c r="L37" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -507,6 +507,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -516,7 +519,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -621,6 +624,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>943603.11211726349</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>979862.61001506285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -663,7 +669,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -768,6 +774,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -777,7 +786,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -882,6 +891,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>805929.10265798098</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>852047.00226545602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -924,7 +936,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1029,6 +1041,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1038,7 +1053,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1143,6 +1158,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-137674.0094592825</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-127815.60774960683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1164,11 +1182,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92078080"/>
-        <c:axId val="92079616"/>
+        <c:axId val="524279808"/>
+        <c:axId val="524281728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92078080"/>
+        <c:axId val="524279808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1211,14 +1229,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92079616"/>
+        <c:crossAx val="524281728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92079616"/>
+        <c:axId val="524281728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,7 +1287,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92078080"/>
+        <c:crossAx val="524279808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1430,7 +1448,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1535,6 +1553,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>38024.498327931113</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36259.497897799316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1549,8 +1570,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="405009536"/>
-        <c:axId val="156087424"/>
+        <c:axId val="617548032"/>
+        <c:axId val="617546112"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1575,7 +1596,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1680,6 +1701,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1689,7 +1713,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1794,6 +1818,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3.0022250976562499</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.0390229492187499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1810,11 +1837,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92251648"/>
-        <c:axId val="92253568"/>
+        <c:axId val="617525248"/>
+        <c:axId val="617527936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92251648"/>
+        <c:axId val="617525248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1857,14 +1884,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92253568"/>
+        <c:crossAx val="617527936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92253568"/>
+        <c:axId val="617527936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1915,12 +1942,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92251648"/>
+        <c:crossAx val="617525248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="156087424"/>
+        <c:axId val="617546112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,12 +1984,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405009536"/>
+        <c:crossAx val="617548032"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="405009536"/>
+        <c:axId val="617548032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1971,7 +1998,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156087424"/>
+        <c:crossAx val="617546112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2380,7 +2407,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA37"/>
+  <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3929,6 +3956,44 @@
         <v>1612.0086206897299</v>
       </c>
     </row>
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="14">
+        <v>45380</v>
+      </c>
+      <c r="B38" s="15">
+        <v>3.0390229492187499</v>
+      </c>
+      <c r="C38" s="15">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D38" s="16">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E38" s="16">
+        <v>36259.497897799316</v>
+      </c>
+      <c r="F38" s="17">
+        <v>11931.301113445243</v>
+      </c>
+      <c r="G38" s="17">
+        <v>279838.29271950381</v>
+      </c>
+      <c r="H38" s="17">
+        <v>850434.99364476628</v>
+      </c>
+      <c r="I38" s="17">
+        <v>979862.61001506285</v>
+      </c>
+      <c r="J38" s="17">
+        <v>852047.00226545602</v>
+      </c>
+      <c r="K38" s="17">
+        <v>-127815.60774960683</v>
+      </c>
+      <c r="L38" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -510,6 +510,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -519,7 +522,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -627,6 +630,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>979862.61001506285</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1013375.6492934038</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -669,7 +675,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -777,6 +783,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -786,7 +795,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -894,6 +903,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>852047.00226545602</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>904892.93234472338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,7 +948,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1044,6 +1056,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1053,7 +1068,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1161,6 +1176,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-127815.60774960683</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-108482.71694868046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1182,11 +1200,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524279808"/>
-        <c:axId val="524281728"/>
+        <c:axId val="162409472"/>
+        <c:axId val="407597824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524279808"/>
+        <c:axId val="162409472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1229,14 +1247,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524281728"/>
+        <c:crossAx val="407597824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524281728"/>
+        <c:axId val="407597824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1287,7 +1305,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524279808"/>
+        <c:crossAx val="162409472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1448,7 +1466,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1556,6 +1574,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>36259.497897799316</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>33513.039278340933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1570,8 +1591,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="617548032"/>
-        <c:axId val="617546112"/>
+        <c:axId val="458362880"/>
+        <c:axId val="458234112"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1596,7 +1617,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1704,6 +1725,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1713,7 +1737,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1821,6 +1845,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>3.0390229492187499</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.1081088867187501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1837,11 +1864,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617525248"/>
-        <c:axId val="617527936"/>
+        <c:axId val="446073472"/>
+        <c:axId val="458232192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617525248"/>
+        <c:axId val="446073472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1884,14 +1911,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617527936"/>
+        <c:crossAx val="458232192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617527936"/>
+        <c:axId val="458232192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1942,12 +1969,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617525248"/>
+        <c:crossAx val="446073472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617546112"/>
+        <c:axId val="458234112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1984,12 +2011,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617548032"/>
+        <c:crossAx val="458362880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="617548032"/>
+        <c:axId val="458362880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1998,7 +2025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617546112"/>
+        <c:crossAx val="458234112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2407,7 +2434,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA38"/>
+  <dimension ref="A1:AA39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3994,6 +4021,44 @@
         <v>1612.0086206897299</v>
       </c>
     </row>
+    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="14">
+        <v>45412</v>
+      </c>
+      <c r="B39" s="15">
+        <v>3.1081088867187501</v>
+      </c>
+      <c r="C39" s="15">
+        <v>18.11000061</v>
+      </c>
+      <c r="D39" s="16">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E39" s="16">
+        <v>33513.039278340933</v>
+      </c>
+      <c r="F39" s="17">
+        <v>10782.453414532994</v>
+      </c>
+      <c r="G39" s="17">
+        <v>290620.7461340368</v>
+      </c>
+      <c r="H39" s="17">
+        <v>903280.92372403364</v>
+      </c>
+      <c r="I39" s="17">
+        <v>1013375.6492934038</v>
+      </c>
+      <c r="J39" s="17">
+        <v>904892.93234472338</v>
+      </c>
+      <c r="K39" s="17">
+        <v>-108482.71694868046</v>
+      </c>
+      <c r="L39" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -542,97 +542,97 @@
                   <c:v>40481.406990791962</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52148.221373179636</c:v>
+                  <c:v>52148.221384595599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64967.946328742102</c:v>
+                  <c:v>64967.943344615618</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>79182.33418903171</c:v>
+                  <c:v>79182.327064179699</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>105607.05180510106</c:v>
+                  <c:v>105607.04295247686</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>130172.61165171349</c:v>
+                  <c:v>130172.60286040753</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>164537.77781542929</c:v>
+                  <c:v>164537.76909293208</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>205760.43679266769</c:v>
+                  <c:v>205760.42812961241</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>247670.22312009777</c:v>
+                  <c:v>247670.21451229439</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>272590.3800609961</c:v>
+                  <c:v>272590.37152337731</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>301566.39888449764</c:v>
+                  <c:v>301566.3903830148</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>333155.37425341766</c:v>
+                  <c:v>333155.36581838265</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>372772.62095975736</c:v>
+                  <c:v>372772.61015758046</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>412249.13116579794</c:v>
+                  <c:v>412249.12040118361</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>447433.97088946414</c:v>
+                  <c:v>447433.96018058504</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>481135.78253253351</c:v>
+                  <c:v>481135.77185701393</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>505270.14247409179</c:v>
+                  <c:v>505270.13183497789</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>531926.42535211891</c:v>
+                  <c:v>531926.4147389757</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>556547.12030853529</c:v>
+                  <c:v>556547.10973878833</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>582515.92990993394</c:v>
+                  <c:v>582515.91935761459</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>616108.03074959258</c:v>
+                  <c:v>616108.02021346893</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>645102.94959475833</c:v>
+                  <c:v>645102.93907674763</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>672172.38558687002</c:v>
+                  <c:v>672172.37510777102</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>703977.38461878558</c:v>
+                  <c:v>703977.37417300092</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>741075.91602108208</c:v>
+                  <c:v>741075.90560190182</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>779004.29652438569</c:v>
+                  <c:v>779004.2861398455</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>818906.47496209387</c:v>
+                  <c:v>818906.4646216234</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>858349.94796120108</c:v>
+                  <c:v>858349.93762741261</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>905578.61378933233</c:v>
+                  <c:v>905578.60346153192</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>943603.11211726349</c:v>
+                  <c:v>943603.10180380999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>979862.61001506285</c:v>
+                  <c:v>979704.81405412068</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1013375.6492934038</c:v>
+                  <c:v>1013217.8533531342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -815,97 +815,97 @@
                   <c:v>39869.038874257116</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52813.025907850562</c:v>
+                  <c:v>52813.025919266533</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66545.825969857004</c:v>
+                  <c:v>66545.822985934123</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>79558.439401320473</c:v>
+                  <c:v>79558.432331897551</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>97664.720683972031</c:v>
+                  <c:v>97664.712641225138</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>122042.56010108377</c:v>
+                  <c:v>122042.55213537344</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>143360.90437901206</c:v>
+                  <c:v>143360.89734507431</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>171213.32513610244</c:v>
+                  <c:v>171213.31882507156</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>219660.19139812523</c:v>
+                  <c:v>219660.18489909513</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>272972.15173328848</c:v>
+                  <c:v>272972.14445821178</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>286289.03519777412</c:v>
+                  <c:v>286289.02837864967</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>305361.68024218484</c:v>
+                  <c:v>305361.67378932296</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>315895.43930199702</c:v>
+                  <c:v>315895.43109984329</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>350834.74284954427</c:v>
+                  <c:v>350834.73480336484</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>405165.77582340705</c:v>
+                  <c:v>405165.76739182975</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>438083.73687453551</c:v>
+                  <c:v>438083.72849269497</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>504627.63565710397</c:v>
+                  <c:v>504627.62649725215</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>513689.15984423808</c:v>
+                  <c:v>513689.15103075519</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>543666.14031884272</c:v>
+                  <c:v>543666.13145656791</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>555010.76881737297</c:v>
+                  <c:v>555010.76021162281</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>563296.52850202331</c:v>
+                  <c:v>563296.52030600084</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>618052.615835384</c:v>
+                  <c:v>618052.6072815709</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>648803.26686322526</c:v>
+                  <c:v>648803.25829724269</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>636512.23137454153</c:v>
+                  <c:v>636512.22342551209</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>645108.14440639422</c:v>
+                  <c:v>645108.13684082543</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>662932.42452916608</c:v>
+                  <c:v>662932.41723460075</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>689130.78967867827</c:v>
+                  <c:v>689130.78257933992</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>721432.50510384492</c:v>
+                  <c:v>721432.49808493454</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>673112.46553766658</c:v>
+                  <c:v>673112.45945643191</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>805929.10265798098</c:v>
+                  <c:v>805929.09573263756</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>852047.00226545602</c:v>
+                  <c:v>851889.20960774098</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>904892.93234472338</c:v>
+                  <c:v>904731.55261608225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1088,97 +1088,97 @@
                   <c:v>-612.36811653484619</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>664.80453467092593</c:v>
+                  <c:v>664.80453467093321</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1577.8796411149015</c:v>
+                  <c:v>1577.8796413185046</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>376.10521228876314</c:v>
+                  <c:v>376.10526771785226</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-7942.3311211290275</c:v>
+                  <c:v>-7942.3303112517169</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-8130.0515506297234</c:v>
+                  <c:v>-8130.0507250340888</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-21176.873436417227</c:v>
+                  <c:v>-21176.871747857775</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-34547.111656565248</c:v>
+                  <c:v>-34547.109304540849</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-28010.03172197254</c:v>
+                  <c:v>-28010.029613199265</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>381.77167229237966</c:v>
+                  <c:v>381.77293483447284</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-15277.363686723518</c:v>
+                  <c:v>-15277.362004365132</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-27793.694011232816</c:v>
+                  <c:v>-27793.69202905969</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-56877.181657760346</c:v>
+                  <c:v>-56877.179057737172</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-61414.388316253666</c:v>
+                  <c:v>-61414.385597818764</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-42268.195066057087</c:v>
+                  <c:v>-42268.192788755288</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-43052.045657998009</c:v>
+                  <c:v>-43052.043364318961</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-642.50681698782137</c:v>
+                  <c:v>-642.50533772574272</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-18237.265507880831</c:v>
+                  <c:v>-18237.263708220504</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-12880.979989692569</c:v>
+                  <c:v>-12880.978282220429</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-27505.161092560971</c:v>
+                  <c:v>-27505.159145991784</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-52811.502247569268</c:v>
+                  <c:v>-52811.499907468096</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-27050.333759374334</c:v>
+                  <c:v>-27050.331795176724</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-23369.118723644759</c:v>
+                  <c:v>-23369.116810528329</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-67465.153244244051</c:v>
+                  <c:v>-67465.150747488835</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-95967.771614687867</c:v>
+                  <c:v>-95967.768761076382</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-116071.87199521961</c:v>
+                  <c:v>-116071.86890524474</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-129775.6852834156</c:v>
+                  <c:v>-129775.68204228347</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-136917.44285735616</c:v>
+                  <c:v>-136917.43954247807</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-232466.14825166576</c:v>
+                  <c:v>-232466.14400510001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-137674.0094592825</c:v>
+                  <c:v>-137674.00607117242</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-127815.60774960683</c:v>
+                  <c:v>-127815.6044463797</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-108482.71694868046</c:v>
+                  <c:v>-108486.30073705199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1200,11 +1200,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="162409472"/>
-        <c:axId val="407597824"/>
+        <c:axId val="68572288"/>
+        <c:axId val="68573824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="162409472"/>
+        <c:axId val="68572288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1247,14 +1247,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407597824"/>
+        <c:crossAx val="68573824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="407597824"/>
+        <c:axId val="68573824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1305,7 +1305,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162409472"/>
+        <c:crossAx val="68572288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1486,97 +1486,97 @@
                   <c:v>18607.735896751474</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11666.814382387671</c:v>
+                  <c:v>11666.814393803639</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12819.724955562464</c:v>
+                  <c:v>12819.721960020022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14214.387860289606</c:v>
+                  <c:v>14214.383719564079</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26424.717616069345</c:v>
+                  <c:v>26424.71588829716</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24565.559846612443</c:v>
+                  <c:v>24565.559907930678</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34365.166163715803</c:v>
+                  <c:v>34365.166232524549</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41222.658977238403</c:v>
+                  <c:v>41222.659036680328</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41909.786327430069</c:v>
+                  <c:v>41909.786382681988</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24920.156940898323</c:v>
+                  <c:v>24920.157011082942</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28976.018823501534</c:v>
+                  <c:v>28976.018859637465</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31588.975368920033</c:v>
+                  <c:v>31588.975435367818</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39617.246706339683</c:v>
+                  <c:v>39617.24433919783</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39476.510206040606</c:v>
+                  <c:v>39476.510243603116</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>35184.839723666191</c:v>
+                  <c:v>35184.839779401416</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33701.811643069363</c:v>
+                  <c:v>33701.811676428908</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24134.359941558272</c:v>
+                  <c:v>24134.359977963992</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>26656.282878027137</c:v>
+                  <c:v>26656.282903997755</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24620.694956416326</c:v>
+                  <c:v>24620.694999812695</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25968.8096013986</c:v>
+                  <c:v>25968.809618826315</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>33592.100839658677</c:v>
+                  <c:v>33592.100855854354</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28994.918845165728</c:v>
+                  <c:v>28994.918863278643</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27069.435992111685</c:v>
+                  <c:v>27069.436031023346</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>31804.999031915606</c:v>
+                  <c:v>31804.999065229906</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>37098.531402296496</c:v>
+                  <c:v>37098.531428900846</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>37928.380503303619</c:v>
+                  <c:v>37928.380537943682</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>39902.178437708179</c:v>
+                  <c:v>39902.178481777861</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>39443.472999107165</c:v>
+                  <c:v>39443.473005789252</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>47228.665828131299</c:v>
+                  <c:v>47228.66583411934</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>38024.498327931113</c:v>
+                  <c:v>38024.498342278057</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36259.497897799316</c:v>
+                  <c:v>36101.712250310709</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>33513.039278340933</c:v>
+                  <c:v>33513.039299013537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1591,8 +1591,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="458362880"/>
-        <c:axId val="458234112"/>
+        <c:axId val="507723136"/>
+        <c:axId val="507721216"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1864,11 +1864,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="446073472"/>
-        <c:axId val="458232192"/>
+        <c:axId val="507364096"/>
+        <c:axId val="507366784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="446073472"/>
+        <c:axId val="507364096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1911,14 +1911,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458232192"/>
+        <c:crossAx val="507366784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="458232192"/>
+        <c:axId val="507366784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1969,12 +1969,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446073472"/>
+        <c:crossAx val="507364096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="458234112"/>
+        <c:axId val="507721216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,12 +2011,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458362880"/>
+        <c:crossAx val="507723136"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="458362880"/>
+        <c:axId val="507723136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2025,7 +2025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="458234112"/>
+        <c:crossAx val="507721216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2597,11 +2597,11 @@
       </c>
       <c r="Z3" s="28">
         <f>Q4</f>
-        <v>79182.33418903171</v>
+        <v>79182.327064179699</v>
       </c>
       <c r="AA3" s="1">
         <f>-Z3</f>
-        <v>-79182.33418903171</v>
+        <v>-79182.327064179699</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2646,36 +2646,36 @@
         <v>44561</v>
       </c>
       <c r="Q4" s="9">
-        <v>79182.33418903171</v>
+        <v>79182.327064179699</v>
       </c>
       <c r="R4" s="4">
-        <v>79182.33418903171</v>
+        <v>79182.327064179699</v>
       </c>
       <c r="S4" s="4">
-        <v>79558.439401320473</v>
+        <v>79558.432331897551</v>
       </c>
       <c r="T4" s="4">
-        <v>376.10521228876314</v>
+        <v>376.10526771785226</v>
       </c>
       <c r="U4" s="4">
         <v>1612.0086206897299</v>
       </c>
       <c r="V4" s="8">
-        <v>4.7498626573812342E-3</v>
+        <v>4.7498637847938905E-3</v>
       </c>
       <c r="W4" s="8">
-        <v>4.7498626573812342E-3</v>
+        <v>4.7498637847938905E-3</v>
       </c>
       <c r="Y4" s="19">
         <v>44925</v>
       </c>
       <c r="Z4" s="28">
         <f>Q5</f>
-        <v>401953.44834350178</v>
+        <v>401953.44479283423</v>
       </c>
       <c r="AA4" s="1">
         <f>-Z4</f>
-        <v>-401953.44834350178</v>
+        <v>-401953.44479283423</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2720,32 +2720,32 @@
         <v>44925</v>
       </c>
       <c r="Q5" s="9">
-        <v>401953.44834350178</v>
+        <v>401953.44479283423</v>
       </c>
       <c r="R5" s="4">
-        <v>481135.78253253351</v>
+        <v>481135.77185701393</v>
       </c>
       <c r="S5" s="4">
-        <v>438083.73687453551</v>
+        <v>438083.72849269497</v>
       </c>
       <c r="T5" s="4">
-        <v>-43052.045657998009</v>
+        <v>-43052.043364318961</v>
       </c>
       <c r="U5" s="4">
         <v>1612.0086206897299</v>
       </c>
       <c r="V5" s="8">
-        <v>-8.9480032915836824E-2</v>
+        <v>-8.9480030134016633E-2</v>
       </c>
       <c r="W5" s="8">
-        <v>-7.7687910354100831E-2</v>
+        <v>-7.76879086136254E-2</v>
       </c>
       <c r="Y5" s="19">
         <v>44925</v>
       </c>
       <c r="AA5" s="1">
         <f>VLOOKUP(Y5,P:S,4)</f>
-        <v>438083.73687453551</v>
+        <v>438083.72849269497</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="M6" s="6"/>
       <c r="AA6" s="2">
-        <v>-7.7687910354100831E-2</v>
+        <v>-7.76879086136254E-2</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2876,31 +2876,31 @@
         <v>4.8678999999999997</v>
       </c>
       <c r="C9" s="15">
-        <v>36.299999239999998</v>
+        <v>36.299999237060547</v>
       </c>
       <c r="D9" s="16">
-        <v>39.253623134275358</v>
+        <v>39.253623134226025</v>
       </c>
       <c r="E9" s="16">
-        <v>11666.814382387671</v>
+        <v>11666.814393803639</v>
       </c>
       <c r="F9" s="17">
-        <v>2396.6832478867009</v>
+        <v>2396.6832502318534</v>
       </c>
       <c r="G9" s="17">
-        <v>10518.091433094523</v>
+        <v>10518.091435439677</v>
       </c>
       <c r="H9" s="17">
-        <v>51201.01728716083</v>
+        <v>51201.0172985768</v>
       </c>
       <c r="I9" s="17">
-        <v>52148.221373179636</v>
+        <v>52148.221384595599</v>
       </c>
       <c r="J9" s="17">
-        <v>52813.025907850562</v>
+        <v>52813.025919266533</v>
       </c>
       <c r="K9" s="17">
-        <v>664.80453467092593</v>
+        <v>664.80453467093321</v>
       </c>
       <c r="L9" s="16">
         <v>1612.0086206897299</v>
@@ -2915,31 +2915,31 @@
         <v>4.9547099609374996</v>
       </c>
       <c r="C10" s="15">
-        <v>35.450000000000003</v>
+        <v>35.450000762939453</v>
       </c>
       <c r="D10" s="16">
-        <v>38.695499988749994</v>
+        <v>38.695499993324269</v>
       </c>
       <c r="E10" s="16">
-        <v>12819.724955562464</v>
+        <v>12819.721960020022</v>
       </c>
       <c r="F10" s="17">
-        <v>2587.3815130718158</v>
+        <v>2587.3809084869931</v>
       </c>
       <c r="G10" s="17">
-        <v>13105.472946166339</v>
+        <v>13105.472343926671</v>
       </c>
       <c r="H10" s="17">
-        <v>64933.817349167279</v>
+        <v>64933.814365244398</v>
       </c>
       <c r="I10" s="17">
-        <v>64967.946328742102</v>
+        <v>64967.943344615618</v>
       </c>
       <c r="J10" s="17">
-        <v>66545.825969857004</v>
+        <v>66545.822985934123</v>
       </c>
       <c r="K10" s="17">
-        <v>1577.8796411149015</v>
+        <v>1577.8796413185046</v>
       </c>
       <c r="L10" s="16">
         <v>1612.0086206897299</v>
@@ -2954,31 +2954,31 @@
         <v>4.8630097656249998</v>
       </c>
       <c r="C11" s="15">
-        <v>34.630000000000003</v>
+        <v>34.630001068115234</v>
       </c>
       <c r="D11" s="16">
-        <v>38.228579205136612</v>
+        <v>38.2285792249669</v>
       </c>
       <c r="E11" s="16">
-        <v>14214.387860289606</v>
+        <v>14214.383719564079</v>
       </c>
       <c r="F11" s="17">
-        <v>2922.9609943961846</v>
+        <v>2922.9601429223594</v>
       </c>
       <c r="G11" s="17">
-        <v>16028.433940562523</v>
+        <v>16028.432486849029</v>
       </c>
       <c r="H11" s="17">
-        <v>77946.430780630748</v>
+        <v>77946.423711207826</v>
       </c>
       <c r="I11" s="17">
-        <v>79182.33418903171</v>
+        <v>79182.327064179699</v>
       </c>
       <c r="J11" s="17">
-        <v>79558.439401320473</v>
+        <v>79558.432331897551</v>
       </c>
       <c r="K11" s="17">
-        <v>376.10521228876314</v>
+        <v>376.10526771785226</v>
       </c>
       <c r="L11" s="16">
         <v>1612.0086206897299</v>
@@ -2993,31 +2993,31 @@
         <v>4.3440297851562502</v>
       </c>
       <c r="C12" s="15">
-        <v>31.02</v>
+        <v>31.020000457763672</v>
       </c>
       <c r="D12" s="16">
-        <v>37.709801928118821</v>
+        <v>37.709801948471814</v>
       </c>
       <c r="E12" s="16">
-        <v>26424.717616069345</v>
+        <v>26424.71588829716</v>
       </c>
       <c r="F12" s="17">
-        <v>6082.9964164527191</v>
+        <v>6082.9960187178349</v>
       </c>
       <c r="G12" s="17">
-        <v>22111.430357015241</v>
+        <v>22111.428505566866</v>
       </c>
       <c r="H12" s="17">
-        <v>96052.712063282306</v>
+        <v>96052.704020535413</v>
       </c>
       <c r="I12" s="17">
-        <v>105607.05180510106</v>
+        <v>105607.04295247686</v>
       </c>
       <c r="J12" s="17">
-        <v>97664.720683972031</v>
+        <v>97664.712641225138</v>
       </c>
       <c r="K12" s="17">
-        <v>-7942.3311211290275</v>
+        <v>-7942.3303112517169</v>
       </c>
       <c r="L12" s="16">
         <v>1612.0086206897299</v>
@@ -3032,31 +3032,31 @@
         <v>4.3355400390624999</v>
       </c>
       <c r="C13" s="15">
-        <v>30.969999309999999</v>
+        <v>30.969999313354492</v>
       </c>
       <c r="D13" s="16">
-        <v>37.189128385091756</v>
+        <v>37.189128403969853</v>
       </c>
       <c r="E13" s="16">
-        <v>24565.559846612443</v>
+        <v>24565.559907930678</v>
       </c>
       <c r="F13" s="17">
-        <v>5666.0899507975491</v>
+        <v>5666.0899649407083</v>
       </c>
       <c r="G13" s="17">
-        <v>27777.520307812789</v>
+        <v>27777.518470507574</v>
       </c>
       <c r="H13" s="17">
-        <v>120430.55148039405</v>
+        <v>120430.54351468371</v>
       </c>
       <c r="I13" s="17">
-        <v>130172.61165171349</v>
+        <v>130172.60286040753</v>
       </c>
       <c r="J13" s="17">
-        <v>122042.56010108377</v>
+        <v>122042.55213537344</v>
       </c>
       <c r="K13" s="17">
-        <v>-8130.0515506297234</v>
+        <v>-8130.0507250340888</v>
       </c>
       <c r="L13" s="16">
         <v>1612.0086206897299</v>
@@ -3071,31 +3071,31 @@
         <v>3.8658500976562502</v>
       </c>
       <c r="C14" s="15">
-        <v>27.63999939</v>
+        <v>27.639999389648438</v>
       </c>
       <c r="D14" s="16">
-        <v>36.340041456763494</v>
+        <v>36.340041473831867</v>
       </c>
       <c r="E14" s="16">
-        <v>34365.166163715803</v>
+        <v>34365.166232524549</v>
       </c>
       <c r="F14" s="17">
-        <v>8889.4202557285862</v>
+        <v>8889.4202735277104</v>
       </c>
       <c r="G14" s="17">
-        <v>36666.940563541371</v>
+        <v>36666.938744035288</v>
       </c>
       <c r="H14" s="17">
-        <v>141748.89575832232</v>
+        <v>141748.88872438457</v>
       </c>
       <c r="I14" s="17">
-        <v>164537.77781542929</v>
+        <v>164537.76909293208</v>
       </c>
       <c r="J14" s="17">
-        <v>143360.90437901206</v>
+        <v>143360.89734507431</v>
       </c>
       <c r="K14" s="17">
-        <v>-21176.873436417227</v>
+        <v>-21176.871747857775</v>
       </c>
       <c r="L14" s="16">
         <v>1612.0086206897299</v>
@@ -3110,31 +3110,31 @@
         <v>3.5012099609375</v>
       </c>
       <c r="C15" s="15">
-        <v>25.129999160000001</v>
+        <v>25.129999160766602</v>
       </c>
       <c r="D15" s="16">
-        <v>35.566115356769217</v>
+        <v>35.566115372584406</v>
       </c>
       <c r="E15" s="16">
-        <v>41222.658977238403</v>
+        <v>41222.659036680328</v>
       </c>
       <c r="F15" s="17">
-        <v>11773.832314300978</v>
+        <v>11773.832331278516</v>
       </c>
       <c r="G15" s="17">
-        <v>48440.772877842348</v>
+        <v>48440.771075313802</v>
       </c>
       <c r="H15" s="17">
-        <v>169601.31651541271</v>
+        <v>169601.31020438182</v>
       </c>
       <c r="I15" s="17">
-        <v>205760.43679266769</v>
+        <v>205760.42812961241</v>
       </c>
       <c r="J15" s="17">
-        <v>171213.32513610244</v>
+        <v>171213.31882507156</v>
       </c>
       <c r="K15" s="17">
-        <v>-34547.111656565248</v>
+        <v>-34547.109304540849</v>
       </c>
       <c r="L15" s="16">
         <v>1612.0086206897299</v>
@@ -3149,31 +3149,31 @@
         <v>3.6361599121093748</v>
       </c>
       <c r="C16" s="15">
-        <v>24.129999160000001</v>
+        <v>24.129999160766602</v>
       </c>
       <c r="D16" s="16">
-        <v>34.740071647956981</v>
+        <v>34.740071662711408</v>
       </c>
       <c r="E16" s="16">
-        <v>41909.786327430069</v>
+        <v>41909.786382681988</v>
       </c>
       <c r="F16" s="17">
-        <v>11525.836965491915</v>
+        <v>11525.836980687045</v>
       </c>
       <c r="G16" s="17">
-        <v>59966.609843334263</v>
+        <v>59966.608056000849</v>
       </c>
       <c r="H16" s="17">
-        <v>218048.18277743549</v>
+        <v>218048.17627840539</v>
       </c>
       <c r="I16" s="17">
-        <v>247670.22312009777</v>
+        <v>247670.21451229439</v>
       </c>
       <c r="J16" s="17">
-        <v>219660.19139812523</v>
+        <v>219660.18489909513</v>
       </c>
       <c r="K16" s="17">
-        <v>-28010.03172197254</v>
+        <v>-28010.029613199265</v>
       </c>
       <c r="L16" s="16">
         <v>1612.0086206897299</v>
@@ -3188,31 +3188,31 @@
         <v>4.1096201171875002</v>
       </c>
       <c r="C17" s="15">
-        <v>27.809999470000001</v>
+        <v>27.809999465942383</v>
       </c>
       <c r="D17" s="16">
-        <v>34.118899961366665</v>
+        <v>34.118899975077305</v>
       </c>
       <c r="E17" s="16">
-        <v>24920.156940898323</v>
+        <v>24920.157011082942</v>
       </c>
       <c r="F17" s="17">
-        <v>6063.8590016327171</v>
+        <v>6063.8590187108448</v>
       </c>
       <c r="G17" s="17">
-        <v>66030.468844966977</v>
+        <v>66030.467074711691</v>
       </c>
       <c r="H17" s="17">
-        <v>271360.14311259874</v>
+        <v>271360.13583752204</v>
       </c>
       <c r="I17" s="17">
-        <v>272590.3800609961</v>
+        <v>272590.37152337731</v>
       </c>
       <c r="J17" s="17">
-        <v>272972.15173328848</v>
+        <v>272972.14445821178</v>
       </c>
       <c r="K17" s="17">
-        <v>381.77167229237966</v>
+        <v>381.77293483447284</v>
       </c>
       <c r="L17" s="16">
         <v>1612.0086206897299</v>
@@ -3227,31 +3227,31 @@
         <v>3.8724699707031252</v>
       </c>
       <c r="C18" s="15">
-        <v>26.329999919999999</v>
+        <v>26.329999923706055</v>
       </c>
       <c r="D18" s="16">
-        <v>33.665700887975071</v>
+        <v>33.665700900829464</v>
       </c>
       <c r="E18" s="16">
-        <v>28976.018823501534</v>
+        <v>28976.018859637465</v>
       </c>
       <c r="F18" s="17">
-        <v>7482.5677262102445</v>
+        <v>7482.5677355417383</v>
       </c>
       <c r="G18" s="17">
-        <v>73513.036571177217</v>
+        <v>73513.034810253434</v>
       </c>
       <c r="H18" s="17">
-        <v>284677.02657708438</v>
+        <v>284677.01975795993</v>
       </c>
       <c r="I18" s="17">
-        <v>301566.39888449764</v>
+        <v>301566.3903830148</v>
       </c>
       <c r="J18" s="17">
-        <v>286289.03519777412</v>
+        <v>286289.02837864967</v>
       </c>
       <c r="K18" s="17">
-        <v>-15277.363686723518</v>
+        <v>-15277.362004365132</v>
       </c>
       <c r="L18" s="16">
         <v>1612.0086206897299</v>
@@ -3266,31 +3266,31 @@
         <v>3.7022099609375001</v>
       </c>
       <c r="C19" s="15">
-        <v>25.18000031</v>
+        <v>25.180000305175781</v>
       </c>
       <c r="D19" s="16">
-        <v>33.177209264156971</v>
+        <v>33.177209276154976</v>
       </c>
       <c r="E19" s="16">
-        <v>31588.975368920033</v>
+        <v>31588.975435367818</v>
       </c>
       <c r="F19" s="17">
-        <v>8532.4645825653952</v>
+        <v>8532.4646005135346</v>
       </c>
       <c r="G19" s="17">
-        <v>82045.501153742618</v>
+        <v>82045.499410766963</v>
       </c>
       <c r="H19" s="17">
-        <v>303749.6716214951</v>
+        <v>303749.66516863322</v>
       </c>
       <c r="I19" s="17">
-        <v>333155.37425341766</v>
+        <v>333155.36581838265</v>
       </c>
       <c r="J19" s="17">
-        <v>305361.68024218484</v>
+        <v>305361.67378932296</v>
       </c>
       <c r="K19" s="17">
-        <v>-27793.694011232816</v>
+        <v>-27793.69202905969</v>
       </c>
       <c r="L19" s="16">
         <v>1612.0086206897299</v>
@@ -3305,31 +3305,31 @@
         <v>3.3477299804687499</v>
       </c>
       <c r="C20" s="15">
-        <v>22.61</v>
+        <v>22.610000610351563</v>
       </c>
       <c r="D20" s="16">
-        <v>32.639682710465742</v>
+        <v>32.639682721540886</v>
       </c>
       <c r="E20" s="16">
-        <v>39617.246706339683</v>
+        <v>39617.24433919783</v>
       </c>
       <c r="F20" s="17">
-        <v>11834.062764163693</v>
+        <v>11834.062057075049</v>
       </c>
       <c r="G20" s="17">
-        <v>93879.563917906315</v>
+        <v>93879.56146784201</v>
       </c>
       <c r="H20" s="17">
-        <v>314283.43068130728</v>
+        <v>314283.42247915355</v>
       </c>
       <c r="I20" s="17">
-        <v>372772.62095975736</v>
+        <v>372772.61015758046</v>
       </c>
       <c r="J20" s="17">
-        <v>315895.43930199702</v>
+        <v>315895.43109984329</v>
       </c>
       <c r="K20" s="17">
-        <v>-56877.181657760346</v>
+        <v>-56877.179057737172</v>
       </c>
       <c r="L20" s="16">
         <v>1612.0086206897299</v>
@@ -3345,31 +3345,31 @@
         <v>3.2993999023437501</v>
       </c>
       <c r="C21" s="15">
-        <v>22.239999770000001</v>
+        <v>22.239999771118164</v>
       </c>
       <c r="D21" s="16">
-        <v>32.234052986719142</v>
+        <v>32.234052997346801</v>
       </c>
       <c r="E21" s="16">
-        <v>39476.510206040606</v>
+        <v>39476.510243603116</v>
       </c>
       <c r="F21" s="17">
-        <v>11964.754614315836</v>
+        <v>11964.754625700485</v>
       </c>
       <c r="G21" s="17">
-        <v>105844.31853222215</v>
+        <v>105844.3160935425</v>
       </c>
       <c r="H21" s="17">
-        <v>349222.73422885453</v>
+        <v>349222.72618267511</v>
       </c>
       <c r="I21" s="17">
-        <v>412249.13116579794</v>
+        <v>412249.12040118361</v>
       </c>
       <c r="J21" s="17">
-        <v>350834.74284954427</v>
+        <v>350834.73480336484</v>
       </c>
       <c r="K21" s="17">
-        <v>-61414.388316253666</v>
+        <v>-61414.385597818764</v>
       </c>
       <c r="L21" s="16">
         <v>1612.0086206897299</v>
@@ -3383,31 +3383,31 @@
         <v>3.4802900390625</v>
       </c>
       <c r="C22" s="15">
-        <v>22.809999470000001</v>
+        <v>22.809999465942383</v>
       </c>
       <c r="D22" s="16">
-        <v>31.717553830421821</v>
+        <v>31.717553840474388</v>
       </c>
       <c r="E22" s="16">
-        <v>35184.839723666191</v>
+        <v>35184.839779401416</v>
       </c>
       <c r="F22" s="17">
-        <v>10109.743535381918</v>
+        <v>10109.743551396452</v>
       </c>
       <c r="G22" s="17">
-        <v>115954.06206760407</v>
+        <v>115954.05964493894</v>
       </c>
       <c r="H22" s="17">
-        <v>403553.76720271731</v>
+        <v>403553.75877114001</v>
       </c>
       <c r="I22" s="17">
-        <v>447433.97088946414</v>
+        <v>447433.96018058504</v>
       </c>
       <c r="J22" s="17">
-        <v>405165.77582340705</v>
+        <v>405165.76739182975</v>
       </c>
       <c r="K22" s="17">
-        <v>-42268.195066057087</v>
+        <v>-42268.192788755288</v>
       </c>
       <c r="L22" s="16">
         <v>1612.0086206897299</v>
@@ -3421,31 +3421,31 @@
         <v>3.4735300292968749</v>
       </c>
       <c r="C23" s="15">
-        <v>22.739999770000001</v>
+        <v>22.739999771118164</v>
       </c>
       <c r="D23" s="16">
-        <v>31.272103983435283</v>
+        <v>31.2721039929989</v>
       </c>
       <c r="E23" s="16">
-        <v>33701.811643069363</v>
+        <v>33701.811676428908</v>
       </c>
       <c r="F23" s="17">
-        <v>9702.4673340427144</v>
+        <v>9702.4673436466455</v>
       </c>
       <c r="G23" s="17">
-        <v>125656.52940164678</v>
+        <v>125656.52698858558</v>
       </c>
       <c r="H23" s="17">
-        <v>436471.72825384577</v>
+        <v>436471.71987200523</v>
       </c>
       <c r="I23" s="17">
-        <v>481135.78253253351</v>
+        <v>481135.77185701393</v>
       </c>
       <c r="J23" s="17">
-        <v>438083.73687453551</v>
+        <v>438083.72849269497</v>
       </c>
       <c r="K23" s="17">
-        <v>-43052.045657998009</v>
+        <v>-43052.043364318961</v>
       </c>
       <c r="L23" s="16">
         <v>1612.0086206897299</v>
@@ -3462,28 +3462,28 @@
         <v>24.899999618530273</v>
       </c>
       <c r="D24" s="16">
-        <v>31.009964160696924</v>
+        <v>31.009964169913562</v>
       </c>
       <c r="E24" s="16">
-        <v>24134.359941558272</v>
+        <v>24134.359977963992</v>
       </c>
       <c r="F24" s="17">
-        <v>6332.7595334516254</v>
+        <v>6332.7595430043411</v>
       </c>
       <c r="G24" s="17">
-        <v>131989.28893509842</v>
+        <v>131989.28653158993</v>
       </c>
       <c r="H24" s="17">
-        <v>503015.62703641423</v>
+        <v>503015.61787656241</v>
       </c>
       <c r="I24" s="17">
-        <v>505270.14247409179</v>
+        <v>505270.13183497789</v>
       </c>
       <c r="J24" s="17">
-        <v>504627.63565710397</v>
+        <v>504627.62649725215</v>
       </c>
       <c r="K24" s="17">
-        <v>-642.50681698782137</v>
+        <v>-642.50533772574272</v>
       </c>
       <c r="L24" s="16">
         <v>1612.0086206897299</v>
@@ -3497,31 +3497,31 @@
         <v>3.6777292480468748</v>
       </c>
       <c r="C25" s="15">
-        <v>23.979999540000001</v>
+        <v>23.979999542236328</v>
       </c>
       <c r="D25" s="16">
-        <v>30.728425585070163</v>
+        <v>30.72842559388133</v>
       </c>
       <c r="E25" s="16">
-        <v>26656.282878027137</v>
+        <v>26656.282903997755</v>
       </c>
       <c r="F25" s="17">
-        <v>7248.0275409570841</v>
+        <v>7248.0275480186747</v>
       </c>
       <c r="G25" s="17">
-        <v>139237.31647605551</v>
+        <v>139237.31407960859</v>
       </c>
       <c r="H25" s="17">
-        <v>512077.15122354834</v>
+        <v>512077.14241006545</v>
       </c>
       <c r="I25" s="17">
-        <v>531926.42535211891</v>
+        <v>531926.4147389757</v>
       </c>
       <c r="J25" s="17">
-        <v>513689.15984423808</v>
+        <v>513689.15103075519</v>
       </c>
       <c r="K25" s="17">
-        <v>-18237.265507880831</v>
+        <v>-18237.263708220504</v>
       </c>
       <c r="L25" s="16">
         <v>1612.0086206897299</v>
@@ -3535,31 +3535,31 @@
         <v>3.7161979980468751</v>
       </c>
       <c r="C26" s="15">
-        <v>24.159999849999998</v>
+        <v>24.159999847412109</v>
       </c>
       <c r="D26" s="16">
-        <v>30.393087180738309</v>
+        <v>30.393087189136843</v>
       </c>
       <c r="E26" s="16">
-        <v>24620.694956416326</v>
+        <v>24620.694999812695</v>
       </c>
       <c r="F26" s="17">
-        <v>6625.2376674645011</v>
+        <v>6625.2376791421266</v>
       </c>
       <c r="G26" s="17">
-        <v>145862.55414352001</v>
+        <v>145862.55175875072</v>
       </c>
       <c r="H26" s="17">
-        <v>542054.13169815298</v>
+        <v>542054.12283587817</v>
       </c>
       <c r="I26" s="17">
-        <v>556547.12030853529</v>
+        <v>556547.10973878833</v>
       </c>
       <c r="J26" s="17">
-        <v>543666.14031884272</v>
+        <v>543666.13145656791</v>
       </c>
       <c r="K26" s="17">
-        <v>-12880.979989692569</v>
+        <v>-12880.978282220429</v>
       </c>
       <c r="L26" s="16">
         <v>1612.0086206897299</v>
@@ -3573,31 +3573,31 @@
         <v>3.6159379882812499</v>
       </c>
       <c r="C27" s="15">
-        <v>23.579999919999999</v>
+        <v>23.579999923706055</v>
       </c>
       <c r="D27" s="16">
-        <v>30.154382097569265</v>
+        <v>30.1543821056874</v>
       </c>
       <c r="E27" s="16">
-        <v>25968.8096013986</v>
+        <v>25968.809618826315</v>
       </c>
       <c r="F27" s="17">
-        <v>7181.7629853055796</v>
+        <v>7181.7629901252731</v>
       </c>
       <c r="G27" s="17">
-        <v>153044.31712882558</v>
+        <v>153044.314748876</v>
       </c>
       <c r="H27" s="17">
-        <v>553398.76019668323</v>
+        <v>553398.75159093307</v>
       </c>
       <c r="I27" s="17">
-        <v>582515.92990993394</v>
+        <v>582515.91935761459</v>
       </c>
       <c r="J27" s="17">
-        <v>555010.76881737297</v>
+        <v>555010.76021162281</v>
       </c>
       <c r="K27" s="17">
-        <v>-27505.161092560971</v>
+        <v>-27505.159145991784</v>
       </c>
       <c r="L27" s="16">
         <v>1612.0086206897299</v>
@@ -3611,31 +3611,31 @@
         <v>3.4505849609374999</v>
       </c>
       <c r="C28" s="15">
-        <v>21.329999919999999</v>
+        <v>21.329999923706055</v>
       </c>
       <c r="D28" s="16">
-        <v>29.834329246495866</v>
+        <v>29.834329254302094</v>
       </c>
       <c r="E28" s="16">
-        <v>33592.100839658677</v>
+        <v>33592.100855854354</v>
       </c>
       <c r="F28" s="17">
-        <v>9735.1901836759698</v>
+        <v>9735.1901883695737</v>
       </c>
       <c r="G28" s="17">
-        <v>162779.50731250155</v>
+        <v>162779.50493724557</v>
       </c>
       <c r="H28" s="17">
-        <v>561684.51988133357</v>
+        <v>561684.5116853111</v>
       </c>
       <c r="I28" s="17">
-        <v>616108.03074959258</v>
+        <v>616108.02021346893</v>
       </c>
       <c r="J28" s="17">
-        <v>563296.52850202331</v>
+        <v>563296.52030600084</v>
       </c>
       <c r="K28" s="17">
-        <v>-52811.502247569268</v>
+        <v>-52811.499907468096</v>
       </c>
       <c r="L28" s="16">
         <v>1612.0086206897299</v>
@@ -3649,31 +3649,31 @@
         <v>3.608843017578125</v>
       </c>
       <c r="C29" s="15">
-        <v>22.200000760000002</v>
+        <v>22.200000762939453</v>
       </c>
       <c r="D29" s="16">
-        <v>29.540486543586262</v>
+        <v>29.540486551111261</v>
       </c>
       <c r="E29" s="16">
-        <v>28994.918845165728</v>
+        <v>28994.918863278643</v>
       </c>
       <c r="F29" s="17">
-        <v>8034.4084527744462</v>
+        <v>8034.4084577934827</v>
       </c>
       <c r="G29" s="17">
-        <v>170813.915765276</v>
+        <v>170813.91339503904</v>
       </c>
       <c r="H29" s="17">
-        <v>616440.60721469426</v>
+        <v>616440.59866088117</v>
       </c>
       <c r="I29" s="17">
-        <v>645102.94959475833</v>
+        <v>645102.93907674763</v>
       </c>
       <c r="J29" s="17">
-        <v>618052.615835384</v>
+        <v>618052.6072815709</v>
       </c>
       <c r="K29" s="17">
-        <v>-27050.333759374334</v>
+        <v>-27050.331795176724</v>
       </c>
       <c r="L29" s="16">
         <v>1612.0086206897299</v>
@@ -3687,31 +3687,31 @@
         <v>3.6303940429687498</v>
       </c>
       <c r="C30" s="15">
-        <v>22.409999849999998</v>
+        <v>22.409999847412109</v>
       </c>
       <c r="D30" s="16">
-        <v>29.263021620154856</v>
+        <v>29.26302162741802</v>
       </c>
       <c r="E30" s="16">
-        <v>27069.435992111685</v>
+        <v>27069.436031023346</v>
       </c>
       <c r="F30" s="17">
-        <v>7456.3355029019631</v>
+        <v>7456.3355136202654</v>
       </c>
       <c r="G30" s="17">
-        <v>178270.25126817796</v>
+        <v>178270.2489086593</v>
       </c>
       <c r="H30" s="17">
-        <v>647191.25824253552</v>
+        <v>647191.24967655295</v>
       </c>
       <c r="I30" s="17">
-        <v>672172.38558687002</v>
+        <v>672172.37510777102</v>
       </c>
       <c r="J30" s="17">
-        <v>648803.26686322526</v>
+        <v>648803.25829724269</v>
       </c>
       <c r="K30" s="17">
-        <v>-23369.118723644759</v>
+        <v>-23369.116810528329</v>
       </c>
       <c r="L30" s="16">
         <v>1612.0086206897299</v>
@@ -3725,31 +3725,31 @@
         <v>3.3830390625</v>
       </c>
       <c r="C31" s="15">
-        <v>20.899999619999999</v>
+        <v>20.899999618530273</v>
       </c>
       <c r="D31" s="16">
-        <v>28.951898109092557</v>
+        <v>28.951898116056832</v>
       </c>
       <c r="E31" s="16">
-        <v>31804.999031915606</v>
+        <v>31804.999065229906</v>
       </c>
       <c r="F31" s="17">
-        <v>9401.3100186943539</v>
+        <v>9401.3100285418022</v>
       </c>
       <c r="G31" s="17">
-        <v>187671.56128687231</v>
+        <v>187671.5589372011</v>
       </c>
       <c r="H31" s="17">
-        <v>634900.22275385179</v>
+        <v>634900.21480482235</v>
       </c>
       <c r="I31" s="17">
-        <v>703977.38461878558</v>
+        <v>703977.37417300092</v>
       </c>
       <c r="J31" s="17">
-        <v>636512.23137454153</v>
+        <v>636512.22342551209</v>
       </c>
       <c r="K31" s="17">
-        <v>-67465.153244244051</v>
+        <v>-67465.150747488835</v>
       </c>
       <c r="L31" s="16">
         <v>1612.0086206897299</v>
@@ -3766,28 +3766,28 @@
         <v>19.25</v>
       </c>
       <c r="D32" s="16">
-        <v>28.642033266404177</v>
+        <v>28.642033273139454</v>
       </c>
       <c r="E32" s="16">
-        <v>37098.531402296496</v>
+        <v>37098.531428900846</v>
       </c>
       <c r="F32" s="17">
-        <v>11481.475618292439</v>
+        <v>11481.475626526113</v>
       </c>
       <c r="G32" s="17">
-        <v>199153.03690516474</v>
+        <v>199153.03456372721</v>
       </c>
       <c r="H32" s="17">
-        <v>643496.13578570448</v>
+        <v>643496.1282201357</v>
       </c>
       <c r="I32" s="17">
-        <v>741075.91602108208</v>
+        <v>741075.90560190182</v>
       </c>
       <c r="J32" s="17">
-        <v>645108.14440639422</v>
+        <v>645108.13684082543</v>
       </c>
       <c r="K32" s="17">
-        <v>-95967.771614687867</v>
+        <v>-95967.768761076382</v>
       </c>
       <c r="L32" s="16">
         <v>1612.0086206897299</v>
@@ -3801,31 +3801,31 @@
         <v>3.1302160644531249</v>
       </c>
       <c r="C33" s="15">
-        <v>18.770000459999999</v>
+        <v>18.770000457763672</v>
       </c>
       <c r="D33" s="16">
-        <v>28.372122106405978</v>
+        <v>28.372122112939287</v>
       </c>
       <c r="E33" s="16">
-        <v>37928.380503303619</v>
+        <v>37928.380537943682</v>
       </c>
       <c r="F33" s="17">
-        <v>12116.857022753164</v>
+        <v>12116.857033819513</v>
       </c>
       <c r="G33" s="17">
-        <v>211269.8939279179</v>
+        <v>211269.89159754672</v>
       </c>
       <c r="H33" s="17">
-        <v>661320.41590847634</v>
+        <v>661320.40861391101</v>
       </c>
       <c r="I33" s="17">
-        <v>779004.29652438569</v>
+        <v>779004.2861398455</v>
       </c>
       <c r="J33" s="17">
-        <v>662932.42452916608</v>
+        <v>662932.41723460075</v>
       </c>
       <c r="K33" s="17">
-        <v>-116071.87199521961</v>
+        <v>-116071.86890524474</v>
       </c>
       <c r="L33" s="16">
         <v>1612.0086206897299</v>
@@ -3839,31 +3839,31 @@
         <v>3.0653520507812502</v>
       </c>
       <c r="C34" s="15">
-        <v>17.93000031</v>
+        <v>17.930000305175781</v>
       </c>
       <c r="D34" s="16">
-        <v>28.031817636002071</v>
+        <v>28.031817642334733</v>
       </c>
       <c r="E34" s="16">
-        <v>39902.178437708179</v>
+        <v>39902.178481777861</v>
       </c>
       <c r="F34" s="17">
-        <v>13017.160109729817</v>
+        <v>13017.160124106529</v>
       </c>
       <c r="G34" s="17">
-        <v>224287.05403764773</v>
+        <v>224287.05172165326</v>
       </c>
       <c r="H34" s="17">
-        <v>687518.78105798853</v>
+        <v>687518.77395865018</v>
       </c>
       <c r="I34" s="17">
-        <v>818906.47496209387</v>
+        <v>818906.4646216234</v>
       </c>
       <c r="J34" s="17">
-        <v>689130.78967867827</v>
+        <v>689130.78257933992</v>
       </c>
       <c r="K34" s="17">
-        <v>-129775.6852834156</v>
+        <v>-129775.68204228347</v>
       </c>
       <c r="L34" s="16">
         <v>1612.0086206897299</v>
@@ -3877,31 +3877,31 @@
         <v>3.0335100097656249</v>
       </c>
       <c r="C35" s="15">
-        <v>17.709999079999999</v>
+        <v>17.709999084472656</v>
       </c>
       <c r="D35" s="16">
-        <v>27.695688446862572</v>
+        <v>27.695688453026897</v>
       </c>
       <c r="E35" s="16">
-        <v>39443.472999107165</v>
+        <v>39443.473005789252</v>
       </c>
       <c r="F35" s="17">
-        <v>13002.585411661341</v>
+        <v>13002.585413864099</v>
       </c>
       <c r="G35" s="17">
-        <v>237289.63944930906</v>
+        <v>237289.63713551735</v>
       </c>
       <c r="H35" s="17">
-        <v>719820.49648315518</v>
+        <v>719820.48946424481</v>
       </c>
       <c r="I35" s="17">
-        <v>858349.94796120108</v>
+        <v>858349.93762741261</v>
       </c>
       <c r="J35" s="17">
-        <v>721432.50510384492</v>
+        <v>721432.49808493454</v>
       </c>
       <c r="K35" s="17">
-        <v>-136917.44285735616</v>
+        <v>-136917.43954247807</v>
       </c>
       <c r="L35" s="16">
         <v>1612.0086206897299</v>
@@ -3915,31 +3915,31 @@
         <v>2.6308430175781252</v>
       </c>
       <c r="C36" s="15">
-        <v>15.380000109999999</v>
+        <v>15.380000114440918</v>
       </c>
       <c r="D36" s="16">
-        <v>27.336624370286405</v>
+        <v>27.336624376243282</v>
       </c>
       <c r="E36" s="16">
-        <v>47228.665828131299</v>
+        <v>47228.66583411934</v>
       </c>
       <c r="F36" s="17">
-        <v>17951.91332685771</v>
+        <v>17951.9133291338</v>
       </c>
       <c r="G36" s="17">
-        <v>255241.55277616676</v>
+        <v>255241.55046465114</v>
       </c>
       <c r="H36" s="17">
-        <v>671500.45691697684</v>
+        <v>671500.45083574217</v>
       </c>
       <c r="I36" s="17">
-        <v>905578.61378933233</v>
+        <v>905578.60346153192</v>
       </c>
       <c r="J36" s="17">
-        <v>673112.46553766658</v>
+        <v>673112.45945643191</v>
       </c>
       <c r="K36" s="17">
-        <v>-232466.14825166576</v>
+        <v>-232466.14400510001</v>
       </c>
       <c r="L36" s="16">
         <v>1612.0086206897299</v>
@@ -3953,31 +3953,31 @@
         <v>3.0022250976562499</v>
       </c>
       <c r="C37" s="15">
-        <v>17.479999540000001</v>
+        <v>17.479999542236328</v>
       </c>
       <c r="D37" s="16">
-        <v>27.106454812893954</v>
+        <v>27.106454818762419</v>
       </c>
       <c r="E37" s="16">
-        <v>38024.498327931113</v>
+        <v>38024.498342278057</v>
       </c>
       <c r="F37" s="17">
-        <v>12665.438829891782</v>
+        <v>12665.438834670551</v>
       </c>
       <c r="G37" s="17">
-        <v>267906.99160605855</v>
+        <v>267906.98929932166</v>
       </c>
       <c r="H37" s="17">
-        <v>804317.09403729124</v>
+        <v>804317.08711194783</v>
       </c>
       <c r="I37" s="17">
-        <v>943603.11211726349</v>
+        <v>943603.10180380999</v>
       </c>
       <c r="J37" s="17">
-        <v>805929.10265798098</v>
+        <v>805929.09573263756</v>
       </c>
       <c r="K37" s="17">
-        <v>-137674.0094592825</v>
+        <v>-137674.00607117242</v>
       </c>
       <c r="L37" s="16">
         <v>1612.0086206897299</v>
@@ -3991,31 +3991,31 @@
         <v>3.0390229492187499</v>
       </c>
       <c r="C38" s="15">
-        <v>17.659999849999998</v>
+        <v>17.700000762939453</v>
       </c>
       <c r="D38" s="16">
-        <v>26.839619570961851</v>
+        <v>26.839674750359887</v>
       </c>
       <c r="E38" s="16">
-        <v>36259.497897799316</v>
+        <v>36101.712250310709</v>
       </c>
       <c r="F38" s="17">
-        <v>11931.301113445243</v>
+        <v>11879.381252975229</v>
       </c>
       <c r="G38" s="17">
-        <v>279838.29271950381</v>
+        <v>279786.37055229687</v>
       </c>
       <c r="H38" s="17">
-        <v>850434.99364476628</v>
+        <v>850277.20098705124</v>
       </c>
       <c r="I38" s="17">
-        <v>979862.61001506285</v>
+        <v>979704.81405412068</v>
       </c>
       <c r="J38" s="17">
-        <v>852047.00226545602</v>
+        <v>851889.20960774098</v>
       </c>
       <c r="K38" s="17">
-        <v>-127815.60774960683</v>
+        <v>-127815.6044463797</v>
       </c>
       <c r="L38" s="16">
         <v>1612.0086206897299</v>
@@ -4029,31 +4029,31 @@
         <v>3.1081088867187501</v>
       </c>
       <c r="C39" s="15">
-        <v>18.11000061</v>
+        <v>18.110000610351563</v>
       </c>
       <c r="D39" s="16">
-        <v>26.594314351352136</v>
+        <v>26.594314356937268</v>
       </c>
       <c r="E39" s="16">
-        <v>33513.039278340933</v>
+        <v>33513.039299013537</v>
       </c>
       <c r="F39" s="17">
-        <v>10782.453414532994</v>
+        <v>10782.453421184178</v>
       </c>
       <c r="G39" s="17">
-        <v>290620.7461340368</v>
+        <v>290568.82397348102</v>
       </c>
       <c r="H39" s="17">
-        <v>903280.92372403364</v>
+        <v>903119.54399539251</v>
       </c>
       <c r="I39" s="17">
-        <v>1013375.6492934038</v>
+        <v>1013217.8533531342</v>
       </c>
       <c r="J39" s="17">
-        <v>904892.93234472338</v>
+        <v>904731.55261608225</v>
       </c>
       <c r="K39" s="17">
-        <v>-108482.71694868046</v>
+        <v>-108486.30073705199</v>
       </c>
       <c r="L39" s="16">
         <v>1612.0086206897299</v>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -1200,11 +1200,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="68572288"/>
-        <c:axId val="68573824"/>
+        <c:axId val="68440064"/>
+        <c:axId val="68443136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="68572288"/>
+        <c:axId val="68440064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1247,14 +1247,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68573824"/>
+        <c:crossAx val="68443136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="68573824"/>
+        <c:axId val="68443136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1305,7 +1305,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68572288"/>
+        <c:crossAx val="68440064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1591,8 +1591,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="507723136"/>
-        <c:axId val="507721216"/>
+        <c:axId val="507348096"/>
+        <c:axId val="506709120"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1864,11 +1864,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="507364096"/>
-        <c:axId val="507366784"/>
+        <c:axId val="499803264"/>
+        <c:axId val="499816704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507364096"/>
+        <c:axId val="499803264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1911,14 +1911,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507366784"/>
+        <c:crossAx val="499816704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507366784"/>
+        <c:axId val="499816704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1969,12 +1969,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507364096"/>
+        <c:crossAx val="499803264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="507721216"/>
+        <c:axId val="506709120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,12 +2011,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507723136"/>
+        <c:crossAx val="507348096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="507723136"/>
+        <c:axId val="507348096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2025,7 +2025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="507721216"/>
+        <c:crossAx val="506709120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -222,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -278,6 +278,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -402,7 +403,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -513,6 +514,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -522,7 +526,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -633,6 +637,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1013217.8533531342</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1045053.7393810864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -675,7 +682,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -786,6 +793,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -795,7 +805,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -906,6 +916,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>904731.55261608225</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>910342.46724595909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -948,7 +961,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1059,6 +1072,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1068,7 +1084,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1179,6 +1195,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-108486.30073705199</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-134711.27213512734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1200,11 +1219,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="68440064"/>
-        <c:axId val="68443136"/>
+        <c:axId val="77408512"/>
+        <c:axId val="77410304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="68440064"/>
+        <c:axId val="77408512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1247,14 +1266,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68443136"/>
+        <c:crossAx val="77410304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="68443136"/>
+        <c:axId val="77410304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1305,7 +1324,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68440064"/>
+        <c:crossAx val="77408512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1466,7 +1485,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1577,6 +1596,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>33513.039299013537</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31835.886027952234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1591,8 +1613,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="507348096"/>
-        <c:axId val="506709120"/>
+        <c:axId val="181833728"/>
+        <c:axId val="101014912"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1617,7 +1639,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1728,6 +1750,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1737,7 +1762,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1848,6 +1873,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>3.1081088867187501</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.01785498046875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1864,11 +1892,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="499803264"/>
-        <c:axId val="499816704"/>
+        <c:axId val="98955264"/>
+        <c:axId val="98957568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="499803264"/>
+        <c:axId val="98955264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1911,14 +1939,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499816704"/>
+        <c:crossAx val="98957568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="499816704"/>
+        <c:axId val="98957568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1969,12 +1997,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499803264"/>
+        <c:crossAx val="98955264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="506709120"/>
+        <c:axId val="101014912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,12 +2039,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507348096"/>
+        <c:crossAx val="181833728"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="507348096"/>
+        <c:axId val="181833728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2025,7 +2053,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="506709120"/>
+        <c:crossAx val="101014912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2434,7 +2462,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA39"/>
+  <dimension ref="A1:AD41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2469,7 +2497,7 @@
     <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -2508,7 +2536,7 @@
       </c>
       <c r="N1" s="11"/>
     </row>
-    <row r="2" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2530,7 +2558,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44316</v>
       </c>
@@ -2603,8 +2631,18 @@
         <f>-Z3</f>
         <v>-79182.327064179699</v>
       </c>
+      <c r="AB3" s="19">
+        <v>44561</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>79182.327064179699</v>
+      </c>
+      <c r="AD3" s="1">
+        <f>-AC3</f>
+        <v>-79182.327064179699</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44347</v>
       </c>
@@ -2677,8 +2715,18 @@
         <f>-Z4</f>
         <v>-401953.44479283423</v>
       </c>
+      <c r="AB4" s="19">
+        <v>44925</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>401953.44479283423</v>
+      </c>
+      <c r="AD4" s="1">
+        <f>-AC4</f>
+        <v>-401953.44479283423</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44377</v>
       </c>
@@ -2747,8 +2795,18 @@
         <f>VLOOKUP(Y5,P:S,4)</f>
         <v>438083.72849269497</v>
       </c>
+      <c r="AB5" s="19">
+        <v>45289</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>377214.16577039869</v>
+      </c>
+      <c r="AD5" s="1">
+        <f>-AC5</f>
+        <v>-377214.16577039869</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44407</v>
       </c>
@@ -2786,11 +2844,41 @@
         <v>1612.0086206897299</v>
       </c>
       <c r="M6" s="6"/>
+      <c r="P6" s="19">
+        <v>45289</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>377214.16577039869</v>
+      </c>
+      <c r="R6" s="4">
+        <v>858349.93762741261</v>
+      </c>
+      <c r="S6" s="4">
+        <v>721432.49808493454</v>
+      </c>
+      <c r="T6" s="4">
+        <v>-136917.43954247807</v>
+      </c>
+      <c r="U6" s="4">
+        <v>1612.0086206897299</v>
+      </c>
+      <c r="V6" s="8">
+        <v>-0.15951237780821087</v>
+      </c>
+      <c r="W6" s="8">
+        <v>-0.10105722686370289</v>
+      </c>
       <c r="AA6" s="2">
         <v>-7.76879086136254E-2</v>
       </c>
+      <c r="AB6" s="19">
+        <v>45289</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>721432.49808493454</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44439</v>
       </c>
@@ -2828,8 +2916,11 @@
         <v>1612.0086206897299</v>
       </c>
       <c r="M7" s="6"/>
+      <c r="AD7" s="2">
+        <v>-0.10105722686370289</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44469</v>
       </c>
@@ -2868,7 +2959,7 @@
       </c>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44498</v>
       </c>
@@ -2907,7 +2998,7 @@
       </c>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44530</v>
       </c>
@@ -2946,7 +3037,7 @@
       </c>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>44561</v>
       </c>
@@ -2985,7 +3076,7 @@
       </c>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44589</v>
       </c>
@@ -3024,7 +3115,7 @@
       </c>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>44620</v>
       </c>
@@ -3063,7 +3154,7 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>44651</v>
       </c>
@@ -3102,7 +3193,7 @@
       </c>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>44680</v>
       </c>
@@ -3141,7 +3232,7 @@
       </c>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>44712</v>
       </c>
@@ -4058,6 +4149,47 @@
       <c r="L39" s="16">
         <v>1612.0086206897299</v>
       </c>
+    </row>
+    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="14">
+        <v>45443</v>
+      </c>
+      <c r="B40" s="15">
+        <v>3.01785498046875</v>
+      </c>
+      <c r="C40" s="15">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D40" s="16">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E40" s="16">
+        <v>31835.886027952234</v>
+      </c>
+      <c r="F40" s="17">
+        <v>10549.176893519021</v>
+      </c>
+      <c r="G40" s="17">
+        <v>301118.00086700002</v>
+      </c>
+      <c r="H40" s="17">
+        <v>908730.45862526936</v>
+      </c>
+      <c r="I40" s="17">
+        <v>1045053.7393810864</v>
+      </c>
+      <c r="J40" s="17">
+        <v>910342.46724595909</v>
+      </c>
+      <c r="K40" s="17">
+        <v>-134711.27213512734</v>
+      </c>
+      <c r="L40" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -222,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -278,7 +278,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -403,7 +402,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -517,6 +516,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -526,7 +528,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -640,6 +642,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1045053.7393810864</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1077972.5240436636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -682,7 +687,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -796,6 +801,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -805,7 +813,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -919,6 +927,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>910342.46724595909</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>918917.67001080781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -961,7 +972,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1075,6 +1086,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1084,7 +1098,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1198,6 +1212,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-134711.27213512734</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-159054.85403285583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1219,11 +1236,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77408512"/>
-        <c:axId val="77410304"/>
+        <c:axId val="104993920"/>
+        <c:axId val="104995840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="77408512"/>
+        <c:axId val="104993920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,14 +1283,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77410304"/>
+        <c:crossAx val="104995840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="77410304"/>
+        <c:axId val="104995840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1324,7 +1341,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77408512"/>
+        <c:crossAx val="104993920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1485,7 +1502,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1599,6 +1616,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>31835.886027952234</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32918.784662577113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1613,8 +1633,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="181833728"/>
-        <c:axId val="101014912"/>
+        <c:axId val="512226048"/>
+        <c:axId val="507021952"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1639,7 +1659,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1753,6 +1773,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1762,7 +1785,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1876,6 +1899,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>3.01785498046875</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.9370109863281249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1892,11 +1918,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98955264"/>
-        <c:axId val="98957568"/>
+        <c:axId val="493800448"/>
+        <c:axId val="507020032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="98955264"/>
+        <c:axId val="493800448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1939,14 +1965,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98957568"/>
+        <c:crossAx val="507020032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="98957568"/>
+        <c:axId val="507020032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,12 +2023,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98955264"/>
+        <c:crossAx val="493800448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101014912"/>
+        <c:axId val="507021952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2039,12 +2065,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181833728"/>
+        <c:crossAx val="512226048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="181833728"/>
+        <c:axId val="512226048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2053,7 +2079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101014912"/>
+        <c:crossAx val="507021952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4188,8 +4214,43 @@
         <v>1612.0086206897299</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A41" s="29"/>
+    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="14">
+        <v>45471</v>
+      </c>
+      <c r="B41" s="15">
+        <v>2.9370109863281249</v>
+      </c>
+      <c r="C41" s="15">
+        <v>17.86000061</v>
+      </c>
+      <c r="D41" s="16">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E41" s="16">
+        <v>32918.784662577113</v>
+      </c>
+      <c r="F41" s="17">
+        <v>11208.260648603309</v>
+      </c>
+      <c r="G41" s="17">
+        <v>312326.26151560334</v>
+      </c>
+      <c r="H41" s="17">
+        <v>917305.66139011807</v>
+      </c>
+      <c r="I41" s="17">
+        <v>1077972.5240436636</v>
+      </c>
+      <c r="J41" s="17">
+        <v>918917.67001080781</v>
+      </c>
+      <c r="K41" s="17">
+        <v>-159054.85403285583</v>
+      </c>
+      <c r="L41" s="16">
+        <v>1612.0086206897299</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -519,6 +519,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -528,7 +531,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -645,6 +648,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1077972.5240436636</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1110525.4918223296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -687,7 +693,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -804,6 +810,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -813,7 +822,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -930,6 +939,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>918917.67001080781</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>944982.70021932817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -972,7 +984,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1089,6 +1101,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1098,7 +1113,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1215,6 +1230,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-159054.85403285583</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-165542.79160300142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1236,11 +1254,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104993920"/>
-        <c:axId val="104995840"/>
+        <c:axId val="87743488"/>
+        <c:axId val="225120640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="104993920"/>
+        <c:axId val="87743488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,14 +1301,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104995840"/>
+        <c:crossAx val="225120640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="104995840"/>
+        <c:axId val="225120640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1341,7 +1359,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104993920"/>
+        <c:crossAx val="87743488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1502,7 +1520,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1619,6 +1637,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>32918.784662577113</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32552.967778666007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1633,8 +1654,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="512226048"/>
-        <c:axId val="507021952"/>
+        <c:axId val="442675200"/>
+        <c:axId val="442635392"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1659,7 +1680,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1776,6 +1797,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1785,7 +1809,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1902,6 +1926,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2.9370109863281249</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.916238037109375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1918,11 +1945,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493800448"/>
-        <c:axId val="507020032"/>
+        <c:axId val="441786752"/>
+        <c:axId val="441789440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493800448"/>
+        <c:axId val="441786752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1965,14 +1992,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507020032"/>
+        <c:crossAx val="441789440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507020032"/>
+        <c:axId val="441789440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2023,12 +2050,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493800448"/>
+        <c:crossAx val="441786752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="507021952"/>
+        <c:axId val="442635392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2065,12 +2092,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512226048"/>
+        <c:crossAx val="442675200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="512226048"/>
+        <c:axId val="442675200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2079,7 +2106,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="507021952"/>
+        <c:crossAx val="442635392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2488,7 +2515,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD41"/>
+  <dimension ref="A1:AD42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4252,6 +4279,44 @@
         <v>1612.0086206897299</v>
       </c>
     </row>
+    <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="14">
+        <v>45504</v>
+      </c>
+      <c r="B42" s="15">
+        <v>2.916238037109375</v>
+      </c>
+      <c r="C42" s="15">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D42" s="16">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E42" s="16">
+        <v>32552.967778666007</v>
+      </c>
+      <c r="F42" s="17">
+        <v>11162.657973878246</v>
+      </c>
+      <c r="G42" s="17">
+        <v>323488.9194894816</v>
+      </c>
+      <c r="H42" s="17">
+        <v>943370.69159863843</v>
+      </c>
+      <c r="I42" s="17">
+        <v>1110525.4918223296</v>
+      </c>
+      <c r="J42" s="17">
+        <v>944982.70021932817</v>
+      </c>
+      <c r="K42" s="17">
+        <v>-165542.79160300142</v>
+      </c>
+      <c r="L42" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -522,6 +522,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -531,7 +534,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -651,6 +654,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1110525.4918223296</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1130906.3694750303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -693,7 +699,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -813,6 +819,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -822,7 +831,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -942,6 +951,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>944982.70021932817</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>928784.76818896539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -984,7 +996,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1104,6 +1116,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1113,7 +1128,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1233,6 +1248,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>-165542.79160300142</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-202121.60128606495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1254,11 +1272,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87743488"/>
-        <c:axId val="225120640"/>
+        <c:axId val="342445440"/>
+        <c:axId val="448833408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87743488"/>
+        <c:axId val="342445440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1301,14 +1319,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225120640"/>
+        <c:crossAx val="448833408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="225120640"/>
+        <c:axId val="448833408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1359,7 +1377,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87743488"/>
+        <c:crossAx val="342445440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1520,7 +1538,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1640,6 +1658,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>32552.967778666007</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20380.877652700809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1654,8 +1675,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="442675200"/>
-        <c:axId val="442635392"/>
+        <c:axId val="554132224"/>
+        <c:axId val="543013504"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1680,7 +1701,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1800,6 +1821,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1809,7 +1833,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1929,6 +1953,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>2.916238037109375</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.8031621093750001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1945,11 +1972,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="441786752"/>
-        <c:axId val="441789440"/>
+        <c:axId val="533936768"/>
+        <c:axId val="543011584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="441786752"/>
+        <c:axId val="533936768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1992,14 +2019,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441789440"/>
+        <c:crossAx val="543011584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="441789440"/>
+        <c:axId val="543011584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2050,12 +2077,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441786752"/>
+        <c:crossAx val="533936768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442635392"/>
+        <c:axId val="543013504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2092,12 +2119,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442675200"/>
+        <c:crossAx val="554132224"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="442675200"/>
+        <c:axId val="554132224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2106,7 +2133,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="442635392"/>
+        <c:crossAx val="543013504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2515,7 +2542,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD42"/>
+  <dimension ref="A1:AD43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4317,6 +4344,44 @@
         <v>1612.0086206897299</v>
       </c>
     </row>
+    <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="14">
+        <v>45534</v>
+      </c>
+      <c r="B43" s="15">
+        <v>2.8031621093750001</v>
+      </c>
+      <c r="C43" s="15">
+        <v>20.56999969</v>
+      </c>
+      <c r="D43" s="16">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E43" s="16">
+        <v>20380.877652700809</v>
+      </c>
+      <c r="F43" s="17">
+        <v>7270.6739237585443</v>
+      </c>
+      <c r="G43" s="17">
+        <v>330759.59341324016</v>
+      </c>
+      <c r="H43" s="17">
+        <v>927172.75956827565</v>
+      </c>
+      <c r="I43" s="17">
+        <v>1130906.3694750303</v>
+      </c>
+      <c r="J43" s="17">
+        <v>928784.76818896539</v>
+      </c>
+      <c r="K43" s="17">
+        <v>-202121.60128606495</v>
+      </c>
+      <c r="L43" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -525,6 +525,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -534,7 +537,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -657,6 +660,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1130906.3694750303</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1132359.5054731718</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -699,7 +705,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -822,6 +828,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -831,7 +840,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -954,6 +963,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>928784.76818896539</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1178355.4850963762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -996,7 +1008,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1119,6 +1131,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1128,7 +1143,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1251,6 +1266,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>-202121.60128606495</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45995.97962320433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1272,11 +1290,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="342445440"/>
-        <c:axId val="448833408"/>
+        <c:axId val="370583040"/>
+        <c:axId val="370584576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="342445440"/>
+        <c:axId val="370583040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,14 +1337,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448833408"/>
+        <c:crossAx val="370584576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448833408"/>
+        <c:axId val="370584576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1377,7 +1395,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342445440"/>
+        <c:crossAx val="370583040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1538,7 +1556,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1661,6 +1679,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>20380.877652700809</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1453.1359981414703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1675,8 +1696,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="554132224"/>
-        <c:axId val="543013504"/>
+        <c:axId val="530090240"/>
+        <c:axId val="530088320"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1701,7 +1722,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1824,6 +1845,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1833,7 +1857,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1956,6 +1980,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2.8031621093750001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.5533068847656248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1972,11 +1999,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="533936768"/>
-        <c:axId val="543011584"/>
+        <c:axId val="467804160"/>
+        <c:axId val="467805696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="533936768"/>
+        <c:axId val="467804160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2019,14 +2046,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543011584"/>
+        <c:crossAx val="467805696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="543011584"/>
+        <c:axId val="467805696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2077,12 +2104,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533936768"/>
+        <c:crossAx val="467804160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="543013504"/>
+        <c:axId val="530088320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2119,12 +2146,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554132224"/>
+        <c:crossAx val="530090240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="554132224"/>
+        <c:axId val="530090240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2133,7 +2160,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543013504"/>
+        <c:crossAx val="530088320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2542,7 +2569,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD43"/>
+  <dimension ref="A1:AD44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4382,6 +4409,44 @@
         <v>1612.0086206897299</v>
       </c>
     </row>
+    <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="14">
+        <v>45565</v>
+      </c>
+      <c r="B44" s="15">
+        <v>3.5533068847656248</v>
+      </c>
+      <c r="C44" s="15">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D44" s="16">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E44" s="16">
+        <v>1453.1359981414703</v>
+      </c>
+      <c r="F44" s="17">
+        <v>408.95313725127875</v>
+      </c>
+      <c r="G44" s="17">
+        <v>331168.54655049142</v>
+      </c>
+      <c r="H44" s="17">
+        <v>1176743.4764756865</v>
+      </c>
+      <c r="I44" s="17">
+        <v>1132359.5054731718</v>
+      </c>
+      <c r="J44" s="17">
+        <v>1178355.4850963762</v>
+      </c>
+      <c r="K44" s="17">
+        <v>45995.97962320433</v>
+      </c>
+      <c r="L44" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -528,6 +528,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -537,7 +540,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -663,6 +666,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1132359.5054731718</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1134969.7609595708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -705,7 +711,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -831,6 +837,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -840,7 +849,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -966,6 +975,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1178355.4850963762</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1182135.8263263488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1008,7 +1020,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1134,6 +1146,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1143,7 +1158,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1269,6 +1284,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45995.97962320433</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47166.065366778057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1290,11 +1308,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370583040"/>
-        <c:axId val="370584576"/>
+        <c:axId val="70803456"/>
+        <c:axId val="70805760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370583040"/>
+        <c:axId val="70803456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1337,14 +1355,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370584576"/>
+        <c:crossAx val="70805760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370584576"/>
+        <c:axId val="70805760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1395,7 +1413,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370583040"/>
+        <c:crossAx val="70803456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1556,7 +1574,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1682,6 +1700,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1453.1359981414703</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2610.2554863989344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1696,8 +1717,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="530090240"/>
-        <c:axId val="530088320"/>
+        <c:axId val="485753600"/>
+        <c:axId val="471906560"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1722,7 +1743,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1848,6 +1869,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1857,7 +1881,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1983,6 +2007,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3.5533068847656248</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.5568400878906248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1999,11 +2026,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="467804160"/>
-        <c:axId val="467805696"/>
+        <c:axId val="354445568"/>
+        <c:axId val="471905024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="467804160"/>
+        <c:axId val="354445568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2046,14 +2073,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467805696"/>
+        <c:crossAx val="471905024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="467805696"/>
+        <c:axId val="471905024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2104,12 +2131,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467804160"/>
+        <c:crossAx val="354445568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="530088320"/>
+        <c:axId val="471906560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2146,12 +2173,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530090240"/>
+        <c:crossAx val="485753600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="530090240"/>
+        <c:axId val="485753600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2160,7 +2187,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="530088320"/>
+        <c:crossAx val="471906560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2569,7 +2596,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD44"/>
+  <dimension ref="A1:AD45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4447,6 +4474,44 @@
         <v>1612.0086206897299</v>
       </c>
     </row>
+    <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="14">
+        <v>45596</v>
+      </c>
+      <c r="B45" s="15">
+        <v>3.5568400878906248</v>
+      </c>
+      <c r="C45" s="15">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D45" s="16">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E45" s="16">
+        <v>2610.2554863989344</v>
+      </c>
+      <c r="F45" s="17">
+        <v>733.86922715070386</v>
+      </c>
+      <c r="G45" s="17">
+        <v>331902.41577764211</v>
+      </c>
+      <c r="H45" s="17">
+        <v>1180523.8177056592</v>
+      </c>
+      <c r="I45" s="17">
+        <v>1134969.7609595708</v>
+      </c>
+      <c r="J45" s="17">
+        <v>1182135.8263263488</v>
+      </c>
+      <c r="K45" s="17">
+        <v>47166.065366778057</v>
+      </c>
+      <c r="L45" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -531,6 +531,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -540,7 +543,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -669,6 +672,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1134969.7609595708</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1138419.3748188333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -711,7 +717,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -840,6 +846,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -849,7 +858,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -978,6 +987,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1182135.8263263488</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1189800.2605363622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1020,7 +1032,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1149,6 +1161,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1158,7 +1173,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1287,6 +1302,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>47166.065366778057</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>51380.885717528872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1308,11 +1326,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70803456"/>
-        <c:axId val="70805760"/>
+        <c:axId val="158059136"/>
+        <c:axId val="434352512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="70803456"/>
+        <c:axId val="158059136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1355,14 +1373,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70805760"/>
+        <c:crossAx val="434352512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="70805760"/>
+        <c:axId val="434352512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1413,7 +1431,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70803456"/>
+        <c:crossAx val="158059136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1574,7 +1592,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1703,6 +1721,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>2610.2554863989344</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3449.6138592626553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1717,8 +1738,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="485753600"/>
-        <c:axId val="471906560"/>
+        <c:axId val="477305856"/>
+        <c:axId val="477303936"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1743,7 +1764,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1872,6 +1893,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1881,7 +1905,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2010,6 +2034,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>3.5568400878906248</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.5695390625000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2026,11 +2053,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="354445568"/>
-        <c:axId val="471905024"/>
+        <c:axId val="476379008"/>
+        <c:axId val="476380544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="354445568"/>
+        <c:axId val="476379008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2073,14 +2100,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471905024"/>
+        <c:crossAx val="476380544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471905024"/>
+        <c:axId val="476380544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,12 +2158,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354445568"/>
+        <c:crossAx val="476379008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="471906560"/>
+        <c:axId val="477303936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2173,12 +2200,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485753600"/>
+        <c:crossAx val="477305856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="485753600"/>
+        <c:axId val="477305856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2187,7 +2214,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471906560"/>
+        <c:crossAx val="477303936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2596,7 +2623,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD45"/>
+  <dimension ref="A1:AD46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4512,6 +4539,44 @@
         <v>1612.0086206897299</v>
       </c>
     </row>
+    <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="14">
+        <v>45625</v>
+      </c>
+      <c r="B46" s="15">
+        <v>3.5695390625000001</v>
+      </c>
+      <c r="C46" s="15">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D46" s="16">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E46" s="16">
+        <v>3449.6138592626553</v>
+      </c>
+      <c r="F46" s="17">
+        <v>966.40316826975618</v>
+      </c>
+      <c r="G46" s="17">
+        <v>332868.81894591189</v>
+      </c>
+      <c r="H46" s="17">
+        <v>1188188.2519156726</v>
+      </c>
+      <c r="I46" s="17">
+        <v>1138419.3748188333</v>
+      </c>
+      <c r="J46" s="17">
+        <v>1189800.2605363622</v>
+      </c>
+      <c r="K46" s="17">
+        <v>51380.885717528872</v>
+      </c>
+      <c r="L46" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -222,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -278,6 +278,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -402,7 +403,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -534,6 +535,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -543,7 +547,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -675,6 +679,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1138419.3748188333</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1141497.8322438828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -717,7 +724,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -849,6 +856,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -858,7 +868,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -990,6 +1000,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1189800.2605363622</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1206168.5218111875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1032,7 +1045,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1164,6 +1177,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1173,7 +1189,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1305,6 +1321,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>51380.885717528872</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>64670.689567304682</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1326,11 +1345,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="158059136"/>
-        <c:axId val="434352512"/>
+        <c:axId val="425953536"/>
+        <c:axId val="426406272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="158059136"/>
+        <c:axId val="425953536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1373,14 +1392,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434352512"/>
+        <c:crossAx val="426406272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="434352512"/>
+        <c:axId val="426406272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1431,7 +1450,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158059136"/>
+        <c:crossAx val="425953536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1592,7 +1611,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1724,6 +1743,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3449.6138592626553</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3078.4574250494734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1738,8 +1760,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="477305856"/>
-        <c:axId val="477303936"/>
+        <c:axId val="515541248"/>
+        <c:axId val="515539328"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1764,7 +1786,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1896,6 +1918,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1905,7 +1930,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2037,6 +2062,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3.5695390625000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.6094641113281249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2053,11 +2081,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="476379008"/>
-        <c:axId val="476380544"/>
+        <c:axId val="515044480"/>
+        <c:axId val="515046016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="476379008"/>
+        <c:axId val="515044480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2100,14 +2128,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476380544"/>
+        <c:crossAx val="515046016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="476380544"/>
+        <c:axId val="515046016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2158,12 +2186,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476379008"/>
+        <c:crossAx val="515044480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="477303936"/>
+        <c:axId val="515539328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,12 +2228,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477305856"/>
+        <c:crossAx val="515541248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="477305856"/>
+        <c:axId val="515541248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2214,7 +2242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="477303936"/>
+        <c:crossAx val="515539328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2623,7 +2651,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD46"/>
+  <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2658,7 +2686,7 @@
     <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -2697,7 +2725,7 @@
       </c>
       <c r="N1" s="11"/>
     </row>
-    <row r="2" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2719,7 +2747,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44316</v>
       </c>
@@ -2802,8 +2830,18 @@
         <f>-AC3</f>
         <v>-79182.327064179699</v>
       </c>
+      <c r="AE3" s="19">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>79182.327064179699</v>
+      </c>
+      <c r="AG3" s="1">
+        <f>-AF3</f>
+        <v>-79182.327064179699</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44347</v>
       </c>
@@ -2886,8 +2924,18 @@
         <f>-AC4</f>
         <v>-401953.44479283423</v>
       </c>
+      <c r="AE4" s="19">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>401953.44479283423</v>
+      </c>
+      <c r="AG4" s="1">
+        <f>-AF4</f>
+        <v>-401953.44479283423</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44377</v>
       </c>
@@ -2966,8 +3014,18 @@
         <f>-AC5</f>
         <v>-377214.16577039869</v>
       </c>
+      <c r="AE5" s="19">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>377214.16577039869</v>
+      </c>
+      <c r="AG5" s="1">
+        <f>-AF5</f>
+        <v>-377214.16577039869</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44407</v>
       </c>
@@ -3038,8 +3096,18 @@
       <c r="AD6" s="1">
         <v>721432.49808493454</v>
       </c>
+      <c r="AE6" s="19">
+        <v>45657</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>283147.89461647021</v>
+      </c>
+      <c r="AG6" s="1">
+        <f>-AF6</f>
+        <v>-283147.89461647021</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44439</v>
       </c>
@@ -3077,11 +3145,41 @@
         <v>1612.0086206897299</v>
       </c>
       <c r="M7" s="6"/>
+      <c r="P7" s="19">
+        <v>45657</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>283147.89461647021</v>
+      </c>
+      <c r="R7" s="4">
+        <v>1141497.8322438828</v>
+      </c>
+      <c r="S7" s="4">
+        <v>1206168.5218111875</v>
+      </c>
+      <c r="T7" s="4">
+        <v>64670.689567304682</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1612.0086206897299</v>
+      </c>
+      <c r="V7" s="8">
+        <v>5.6654237739706619E-2</v>
+      </c>
+      <c r="W7" s="8">
+        <v>2.4763104269720726E-2</v>
+      </c>
       <c r="AD7" s="2">
         <v>-0.10105722686370289</v>
       </c>
+      <c r="AE7" s="19">
+        <v>45657</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>1206168.5218111875</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44469</v>
       </c>
@@ -3119,8 +3217,11 @@
         <v>1612.0086206897299</v>
       </c>
       <c r="M8" s="6"/>
+      <c r="AG8" s="2">
+        <v>2.4763104269720726E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44498</v>
       </c>
@@ -3159,7 +3260,7 @@
       </c>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44530</v>
       </c>
@@ -3198,7 +3299,7 @@
       </c>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>44561</v>
       </c>
@@ -3237,7 +3338,7 @@
       </c>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44589</v>
       </c>
@@ -3276,7 +3377,7 @@
       </c>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>44620</v>
       </c>
@@ -3315,7 +3416,7 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>44651</v>
       </c>
@@ -3354,7 +3455,7 @@
       </c>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>44680</v>
       </c>
@@ -3393,7 +3494,7 @@
       </c>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>44712</v>
       </c>
@@ -4576,6 +4677,47 @@
       <c r="L46" s="16">
         <v>1612.0086206897299</v>
       </c>
+    </row>
+    <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="14">
+        <v>45657</v>
+      </c>
+      <c r="B47" s="15">
+        <v>3.6094641113281249</v>
+      </c>
+      <c r="C47" s="15">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D47" s="16">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E47" s="16">
+        <v>3078.4574250494734</v>
+      </c>
+      <c r="F47" s="17">
+        <v>852.88489651078305</v>
+      </c>
+      <c r="G47" s="17">
+        <v>333721.70384242269</v>
+      </c>
+      <c r="H47" s="17">
+        <v>1204556.5131904979</v>
+      </c>
+      <c r="I47" s="17">
+        <v>1141497.8322438828</v>
+      </c>
+      <c r="J47" s="17">
+        <v>1206168.5218111875</v>
+      </c>
+      <c r="K47" s="17">
+        <v>64670.689567304682</v>
+      </c>
+      <c r="L47" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A48" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -222,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -278,7 +278,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -669,19 +668,19 @@
                   <c:v>1110525.4918223296</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1130906.3694750303</c:v>
+                  <c:v>1130906.3694761263</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1132359.5054731718</c:v>
+                  <c:v>1132359.505475339</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1134969.7609595708</c:v>
+                  <c:v>1134969.7609617379</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1138419.3748188333</c:v>
+                  <c:v>1138419.3748210005</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1141497.8322438828</c:v>
+                  <c:v>1141497.83224605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -990,19 +989,19 @@
                   <c:v>944982.70021932817</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>928784.76818896539</c:v>
+                  <c:v>928784.76819006121</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1178355.4850963762</c:v>
+                  <c:v>1178355.4850988365</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1182135.8263263488</c:v>
+                  <c:v>1182135.8263288117</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1189800.2605363622</c:v>
+                  <c:v>1189800.2605388339</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1206168.5218111875</c:v>
+                  <c:v>1206168.5218136869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1311,19 +1310,19 @@
                   <c:v>-165542.79160300142</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-202121.60128606495</c:v>
+                  <c:v>-202121.60128606507</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45995.97962320433</c:v>
+                  <c:v>45995.979623497464</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>47166.065366778057</c:v>
+                  <c:v>47166.065367073752</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>51380.885717528872</c:v>
+                  <c:v>51380.885717833415</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>64670.689567304682</c:v>
+                  <c:v>64670.689567636931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1345,11 +1344,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="425953536"/>
-        <c:axId val="426406272"/>
+        <c:axId val="403436672"/>
+        <c:axId val="403438976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="425953536"/>
+        <c:axId val="403436672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1392,14 +1391,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426406272"/>
+        <c:crossAx val="403438976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="426406272"/>
+        <c:axId val="403438976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1450,7 +1449,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425953536"/>
+        <c:crossAx val="403436672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1733,10 +1732,10 @@
                   <c:v>32552.967778666007</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>20380.877652700809</c:v>
+                  <c:v>20380.877653796702</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1453.1359981414703</c:v>
+                  <c:v>1453.1359992128223</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>2610.2554863989344</c:v>
@@ -1760,8 +1759,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="515541248"/>
-        <c:axId val="515539328"/>
+        <c:axId val="453159552"/>
+        <c:axId val="453158016"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2081,11 +2080,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="515044480"/>
-        <c:axId val="515046016"/>
+        <c:axId val="446326272"/>
+        <c:axId val="446327808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="515044480"/>
+        <c:axId val="446326272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2128,14 +2127,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515046016"/>
+        <c:crossAx val="446327808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="515046016"/>
+        <c:axId val="446327808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2186,12 +2185,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515044480"/>
+        <c:crossAx val="446326272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="515539328"/>
+        <c:axId val="453158016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2228,12 +2227,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515541248"/>
+        <c:crossAx val="453159552"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="515541248"/>
+        <c:axId val="453159552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,7 +2241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="515539328"/>
+        <c:crossAx val="453158016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2651,7 +2650,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3149,22 +3148,22 @@
         <v>45657</v>
       </c>
       <c r="Q7" s="9">
-        <v>283147.89461647021</v>
+        <v>283147.89461863739</v>
       </c>
       <c r="R7" s="4">
-        <v>1141497.8322438828</v>
+        <v>1141497.83224605</v>
       </c>
       <c r="S7" s="4">
-        <v>1206168.5218111875</v>
+        <v>1206168.5218136869</v>
       </c>
       <c r="T7" s="4">
-        <v>64670.689567304682</v>
+        <v>64670.689567636931</v>
       </c>
       <c r="U7" s="4">
         <v>1612.0086206897299</v>
       </c>
       <c r="V7" s="8">
-        <v>5.6654237739706619E-2</v>
+        <v>5.6654237739890125E-2</v>
       </c>
       <c r="W7" s="8">
         <v>2.4763104269720726E-2</v>
@@ -4537,28 +4536,28 @@
         <v>20.56999969</v>
       </c>
       <c r="D43" s="16">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E43" s="16">
-        <v>20380.877652700809</v>
+        <v>20380.877653796702</v>
       </c>
       <c r="F43" s="17">
-        <v>7270.6739237585443</v>
+        <v>7270.6739241494934</v>
       </c>
       <c r="G43" s="17">
-        <v>330759.59341324016</v>
+        <v>330759.59341363108</v>
       </c>
       <c r="H43" s="17">
-        <v>927172.75956827565</v>
+        <v>927172.75956937147</v>
       </c>
       <c r="I43" s="17">
-        <v>1130906.3694750303</v>
+        <v>1130906.3694761263</v>
       </c>
       <c r="J43" s="17">
-        <v>928784.76818896539</v>
+        <v>928784.76819006121</v>
       </c>
       <c r="K43" s="17">
-        <v>-202121.60128606495</v>
+        <v>-202121.60128606507</v>
       </c>
       <c r="L43" s="16">
         <v>1612.0086206897299</v>
@@ -4575,28 +4574,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D44" s="16">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E44" s="16">
-        <v>1453.1359981414703</v>
+        <v>1453.1359992128223</v>
       </c>
       <c r="F44" s="17">
-        <v>408.95313725127875</v>
+        <v>408.95313755278721</v>
       </c>
       <c r="G44" s="17">
-        <v>331168.54655049142</v>
+        <v>331168.54655118386</v>
       </c>
       <c r="H44" s="17">
-        <v>1176743.4764756865</v>
+        <v>1176743.4764781469</v>
       </c>
       <c r="I44" s="17">
-        <v>1132359.5054731718</v>
+        <v>1132359.505475339</v>
       </c>
       <c r="J44" s="17">
-        <v>1178355.4850963762</v>
+        <v>1178355.4850988365</v>
       </c>
       <c r="K44" s="17">
-        <v>45995.97962320433</v>
+        <v>45995.979623497464</v>
       </c>
       <c r="L44" s="16">
         <v>1612.0086206897299</v>
@@ -4622,19 +4621,19 @@
         <v>733.86922715070386</v>
       </c>
       <c r="G45" s="17">
-        <v>331902.41577764211</v>
+        <v>331902.41577833454</v>
       </c>
       <c r="H45" s="17">
-        <v>1180523.8177056592</v>
+        <v>1180523.8177081221</v>
       </c>
       <c r="I45" s="17">
-        <v>1134969.7609595708</v>
+        <v>1134969.7609617379</v>
       </c>
       <c r="J45" s="17">
-        <v>1182135.8263263488</v>
+        <v>1182135.8263288117</v>
       </c>
       <c r="K45" s="17">
-        <v>47166.065366778057</v>
+        <v>47166.065367073752</v>
       </c>
       <c r="L45" s="16">
         <v>1612.0086206897299</v>
@@ -4660,19 +4659,19 @@
         <v>966.40316826975618</v>
       </c>
       <c r="G46" s="17">
-        <v>332868.81894591189</v>
+        <v>332868.81894660433</v>
       </c>
       <c r="H46" s="17">
-        <v>1188188.2519156726</v>
+        <v>1188188.2519181443</v>
       </c>
       <c r="I46" s="17">
-        <v>1138419.3748188333</v>
+        <v>1138419.3748210005</v>
       </c>
       <c r="J46" s="17">
-        <v>1189800.2605363622</v>
+        <v>1189800.2605388339</v>
       </c>
       <c r="K46" s="17">
-        <v>51380.885717528872</v>
+        <v>51380.885717833415</v>
       </c>
       <c r="L46" s="16">
         <v>1612.0086206897299</v>
@@ -4698,26 +4697,23 @@
         <v>852.88489651078305</v>
       </c>
       <c r="G47" s="17">
-        <v>333721.70384242269</v>
+        <v>333721.70384311513</v>
       </c>
       <c r="H47" s="17">
-        <v>1204556.5131904979</v>
+        <v>1204556.5131929973</v>
       </c>
       <c r="I47" s="17">
-        <v>1141497.8322438828</v>
+        <v>1141497.83224605</v>
       </c>
       <c r="J47" s="17">
-        <v>1206168.5218111875</v>
+        <v>1206168.5218136869</v>
       </c>
       <c r="K47" s="17">
-        <v>64670.689567304682</v>
+        <v>64670.689567636931</v>
       </c>
       <c r="L47" s="16">
         <v>1612.0086206897299</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A48" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -537,6 +537,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -546,7 +549,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -681,6 +684,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1141497.83224605</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1146002.0011822754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -723,7 +729,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -858,6 +864,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -867,7 +876,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1002,6 +1011,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1206168.5218136869</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1192848.236503534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1044,7 +1056,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1179,6 +1191,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1188,7 +1203,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1323,6 +1338,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>64670.689567636931</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46846.23532125866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1344,11 +1362,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="403436672"/>
-        <c:axId val="403438976"/>
+        <c:axId val="86779392"/>
+        <c:axId val="86781312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="403436672"/>
+        <c:axId val="86779392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1391,14 +1409,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403438976"/>
+        <c:crossAx val="86781312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="403438976"/>
+        <c:axId val="86781312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1449,7 +1467,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403436672"/>
+        <c:crossAx val="86779392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1610,7 +1628,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1745,6 +1763,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>3078.4574250494734</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4504.1689362253819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1759,8 +1780,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="453159552"/>
-        <c:axId val="453158016"/>
+        <c:axId val="422734080"/>
+        <c:axId val="385116800"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1785,7 +1806,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1920,6 +1941,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1929,7 +1953,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2064,6 +2088,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>3.6094641113281249</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.5560529785156252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2080,11 +2107,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="446326272"/>
-        <c:axId val="446327808"/>
+        <c:axId val="106196352"/>
+        <c:axId val="385114880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="446326272"/>
+        <c:axId val="106196352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2127,14 +2154,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446327808"/>
+        <c:crossAx val="385114880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="446327808"/>
+        <c:axId val="385114880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2185,12 +2212,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446326272"/>
+        <c:crossAx val="106196352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="453158016"/>
+        <c:axId val="385116800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2227,12 +2254,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453159552"/>
+        <c:crossAx val="422734080"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="453159552"/>
+        <c:axId val="422734080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2241,7 +2268,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="453158016"/>
+        <c:crossAx val="385116800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2650,7 +2677,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG47"/>
+  <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4715,6 +4742,44 @@
         <v>1612.0086206897299</v>
       </c>
     </row>
+    <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="14">
+        <v>45684</v>
+      </c>
+      <c r="B48" s="15">
+        <v>3.5560529785156252</v>
+      </c>
+      <c r="C48" s="15">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D48" s="16">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E48" s="16">
+        <v>4504.1689362253819</v>
+      </c>
+      <c r="F48" s="17">
+        <v>1266.6203128687698</v>
+      </c>
+      <c r="G48" s="17">
+        <v>334988.32415598392</v>
+      </c>
+      <c r="H48" s="17">
+        <v>1191236.2278828444</v>
+      </c>
+      <c r="I48" s="17">
+        <v>1146002.0011822754</v>
+      </c>
+      <c r="J48" s="17">
+        <v>1192848.236503534</v>
+      </c>
+      <c r="K48" s="17">
+        <v>46846.23532125866</v>
+      </c>
+      <c r="L48" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -540,6 +540,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -549,7 +552,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -686,6 +689,9 @@
                   <c:v>1141497.83224605</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>1146002.0011822754</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>1146002.0011822754</c:v>
                 </c:pt>
               </c:numCache>
@@ -729,7 +735,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -867,6 +873,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -876,7 +885,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1014,6 +1023,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1192848.236503534</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1270265.706614862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1056,7 +1068,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1194,6 +1206,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1203,7 +1218,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1341,6 +1356,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>46846.23532125866</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>124263.7054325866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1362,11 +1380,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86779392"/>
-        <c:axId val="86781312"/>
+        <c:axId val="91839872"/>
+        <c:axId val="92112768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="86779392"/>
+        <c:axId val="91839872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1409,14 +1427,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86781312"/>
+        <c:crossAx val="92112768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="86781312"/>
+        <c:axId val="92112768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1467,7 +1485,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86779392"/>
+        <c:crossAx val="91839872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1628,7 +1646,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1766,6 +1784,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>4504.1689362253819</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2040.9409313837987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1780,8 +1801,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="422734080"/>
-        <c:axId val="385116800"/>
+        <c:axId val="442543488"/>
+        <c:axId val="442541568"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1806,7 +1827,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1944,6 +1965,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1953,7 +1977,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2091,6 +2115,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>3.5560529785156252</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.7871579589843751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2107,11 +2134,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106196352"/>
-        <c:axId val="385114880"/>
+        <c:axId val="425412864"/>
+        <c:axId val="442540032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="106196352"/>
+        <c:axId val="425412864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2154,14 +2181,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385114880"/>
+        <c:crossAx val="442540032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="385114880"/>
+        <c:axId val="442540032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2212,12 +2239,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106196352"/>
+        <c:crossAx val="425412864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="385116800"/>
+        <c:axId val="442541568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2254,12 +2281,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422734080"/>
+        <c:crossAx val="442543488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="422734080"/>
+        <c:axId val="442543488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2268,7 +2295,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="385116800"/>
+        <c:crossAx val="442541568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2677,7 +2704,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AG49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4780,6 +4807,44 @@
         <v>1612.0086206897299</v>
       </c>
     </row>
+    <row r="49" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="14">
+        <v>45716</v>
+      </c>
+      <c r="B49" s="15">
+        <v>3.7871579589843751</v>
+      </c>
+      <c r="C49" s="15">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D49" s="16">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E49" s="16">
+        <v>-2040.9409313837987</v>
+      </c>
+      <c r="F49" s="17">
+        <v>-538.9109600094763</v>
+      </c>
+      <c r="G49" s="17">
+        <v>334449.41319597443</v>
+      </c>
+      <c r="H49" s="17">
+        <v>1266612.7570627884</v>
+      </c>
+      <c r="I49" s="17">
+        <v>1146002.0011822754</v>
+      </c>
+      <c r="J49" s="17">
+        <v>1270265.706614862</v>
+      </c>
+      <c r="K49" s="17">
+        <v>124263.7054325866</v>
+      </c>
+      <c r="L49" s="16">
+        <v>3652.9495520735286</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -543,6 +543,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -552,7 +555,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -692,6 +695,9 @@
                   <c:v>1146002.0011822754</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>1146002.0011822754</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>1146002.0011822754</c:v>
                 </c:pt>
               </c:numCache>
@@ -735,7 +741,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -876,6 +882,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -885,7 +894,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1026,6 +1035,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1270265.706614862</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1245897.03322071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1068,7 +1080,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1209,6 +1221,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1218,7 +1233,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1359,6 +1374,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>124263.7054325866</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>99895.032038434641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1380,11 +1398,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91839872"/>
-        <c:axId val="92112768"/>
+        <c:axId val="112063232"/>
+        <c:axId val="112065152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91839872"/>
+        <c:axId val="112063232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1427,14 +1445,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92112768"/>
+        <c:crossAx val="112065152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92112768"/>
+        <c:axId val="112065152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1485,7 +1503,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91839872"/>
+        <c:crossAx val="112063232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1646,7 +1664,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1787,6 +1805,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>-2040.9409313837987</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-208.92884883219213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1801,8 +1822,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="442543488"/>
-        <c:axId val="442541568"/>
+        <c:axId val="475604480"/>
+        <c:axId val="475602944"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1827,7 +1848,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1968,6 +1989,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1977,7 +2001,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2118,6 +2142,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>3.7871579589843751</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.7142958984374999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2134,11 +2161,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="425412864"/>
-        <c:axId val="442540032"/>
+        <c:axId val="451945600"/>
+        <c:axId val="451947136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="425412864"/>
+        <c:axId val="451945600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2181,14 +2208,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442540032"/>
+        <c:crossAx val="451947136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442540032"/>
+        <c:axId val="451947136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2239,12 +2266,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425412864"/>
+        <c:crossAx val="451945600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442541568"/>
+        <c:axId val="475602944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2281,12 +2308,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442543488"/>
+        <c:crossAx val="475604480"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="442543488"/>
+        <c:axId val="475604480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2295,7 +2322,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="442541568"/>
+        <c:crossAx val="475602944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2704,7 +2731,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG49"/>
+  <dimension ref="A1:AG50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4845,6 +4872,44 @@
         <v>3652.9495520735286</v>
       </c>
     </row>
+    <row r="50" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="14">
+        <v>45747</v>
+      </c>
+      <c r="B50" s="15">
+        <v>3.7142958984374999</v>
+      </c>
+      <c r="C50" s="15">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D50" s="16">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E50" s="16">
+        <v>-208.92884883219213</v>
+      </c>
+      <c r="F50" s="17">
+        <v>-56.249920454663467</v>
+      </c>
+      <c r="G50" s="17">
+        <v>334393.16327551974</v>
+      </c>
+      <c r="H50" s="17">
+        <v>1242035.1548198042</v>
+      </c>
+      <c r="I50" s="17">
+        <v>1146002.0011822754</v>
+      </c>
+      <c r="J50" s="17">
+        <v>1245897.03322071</v>
+      </c>
+      <c r="K50" s="17">
+        <v>99895.032038434641</v>
+      </c>
+      <c r="L50" s="16">
+        <v>3861.8784009057208</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -546,6 +546,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -555,7 +558,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -699,6 +702,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1146002.0011822754</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1152043.0757644563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -741,7 +747,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -885,6 +891,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -894,7 +903,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1038,6 +1047,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1245897.03322071</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1175709.5288090131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1080,7 +1092,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1224,6 +1236,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1233,7 +1248,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1377,6 +1392,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>99895.032038434641</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>23666.45304455678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1398,11 +1416,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112063232"/>
-        <c:axId val="112065152"/>
+        <c:axId val="75859456"/>
+        <c:axId val="75861376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="112063232"/>
+        <c:axId val="75859456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,14 +1463,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112065152"/>
+        <c:crossAx val="75861376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="112065152"/>
+        <c:axId val="75861376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1503,7 +1521,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112063232"/>
+        <c:crossAx val="75859456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1664,7 +1682,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1808,6 +1826,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>-208.92884883219213</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6041.0745821809896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1822,8 +1843,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="475604480"/>
-        <c:axId val="475602944"/>
+        <c:axId val="468651008"/>
+        <c:axId val="468649088"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1848,7 +1869,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1992,6 +2013,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2001,7 +2025,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2145,6 +2169,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>3.7142958984374999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.4863349609375001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2161,11 +2188,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451945600"/>
-        <c:axId val="451947136"/>
+        <c:axId val="452990848"/>
+        <c:axId val="452992384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451945600"/>
+        <c:axId val="452990848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,14 +2235,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451947136"/>
+        <c:crossAx val="452992384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451947136"/>
+        <c:axId val="452992384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2266,12 +2293,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451945600"/>
+        <c:crossAx val="452990848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="475602944"/>
+        <c:axId val="468649088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2308,12 +2335,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475604480"/>
+        <c:crossAx val="468651008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="475604480"/>
+        <c:axId val="468651008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2322,7 +2349,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="475602944"/>
+        <c:crossAx val="468649088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2731,7 +2758,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG50"/>
+  <dimension ref="A1:AG51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4910,6 +4937,44 @@
         <v>3861.8784009057208</v>
       </c>
     </row>
+    <row r="51" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="14">
+        <v>45777</v>
+      </c>
+      <c r="B51" s="15">
+        <v>3.4863349609375001</v>
+      </c>
+      <c r="C51" s="15">
+        <v>24.010000229999999</v>
+      </c>
+      <c r="D51" s="16">
+        <v>25.539386200172402</v>
+      </c>
+      <c r="E51" s="16">
+        <v>6041.0745821809896</v>
+      </c>
+      <c r="F51" s="17">
+        <v>1732.7866225901892</v>
+      </c>
+      <c r="G51" s="17">
+        <v>336125.94989810995</v>
+      </c>
+      <c r="H51" s="17">
+        <v>1171847.6504081073</v>
+      </c>
+      <c r="I51" s="17">
+        <v>1152043.0757644563</v>
+      </c>
+      <c r="J51" s="17">
+        <v>1175709.5288090131</v>
+      </c>
+      <c r="K51" s="17">
+        <v>23666.45304455678</v>
+      </c>
+      <c r="L51" s="16">
+        <v>3861.8784009057208</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -549,6 +549,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -558,7 +561,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -705,6 +708,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1152043.0757644563</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1160757.8317516064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -747,7 +753,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -894,6 +900,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -903,7 +912,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1050,6 +1059,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1175709.5288090131</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1200142.9325498701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1092,7 +1104,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1239,6 +1251,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1248,7 +1263,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1395,6 +1410,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>23666.45304455678</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>39385.10079826368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1416,11 +1434,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75859456"/>
-        <c:axId val="75861376"/>
+        <c:axId val="80325248"/>
+        <c:axId val="104422400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="75859456"/>
+        <c:axId val="80325248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1463,14 +1481,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75861376"/>
+        <c:crossAx val="104422400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="75861376"/>
+        <c:axId val="104422400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1521,7 +1539,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75859456"/>
+        <c:crossAx val="80325248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1682,7 +1700,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1829,6 +1847,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>6041.0745821809896</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8714.7559871502253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1843,8 +1864,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="468651008"/>
-        <c:axId val="468649088"/>
+        <c:axId val="545304960"/>
+        <c:axId val="536840832"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1869,7 +1890,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2016,6 +2037,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2025,7 +2049,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2172,6 +2196,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>3.4863349609375001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.5330991210937501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2188,11 +2215,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452990848"/>
-        <c:axId val="452992384"/>
+        <c:axId val="309925376"/>
+        <c:axId val="309926912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="452990848"/>
+        <c:axId val="309925376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2235,14 +2262,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452992384"/>
+        <c:crossAx val="309926912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="452992384"/>
+        <c:axId val="309926912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2293,12 +2320,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452990848"/>
+        <c:crossAx val="309925376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="468649088"/>
+        <c:axId val="536840832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2335,12 +2362,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468651008"/>
+        <c:crossAx val="545304960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="468651008"/>
+        <c:axId val="545304960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2349,7 +2376,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="468649088"/>
+        <c:crossAx val="536840832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2758,7 +2785,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG51"/>
+  <dimension ref="A1:AG52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4975,6 +5002,44 @@
         <v>3861.8784009057208</v>
       </c>
     </row>
+    <row r="52" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="14">
+        <v>45807</v>
+      </c>
+      <c r="B52" s="15">
+        <v>3.5330991210937501</v>
+      </c>
+      <c r="C52" s="15">
+        <v>23.299999239999998</v>
+      </c>
+      <c r="D52" s="16">
+        <v>25.506266578519043</v>
+      </c>
+      <c r="E52" s="16">
+        <v>8714.7559871502253</v>
+      </c>
+      <c r="F52" s="17">
+        <v>2466.6038762174262</v>
+      </c>
+      <c r="G52" s="17">
+        <v>338592.55377432739</v>
+      </c>
+      <c r="H52" s="17">
+        <v>1196281.0541489644</v>
+      </c>
+      <c r="I52" s="17">
+        <v>1160757.8317516064</v>
+      </c>
+      <c r="J52" s="17">
+        <v>1200142.9325498701</v>
+      </c>
+      <c r="K52" s="17">
+        <v>39385.10079826368</v>
+      </c>
+      <c r="L52" s="16">
+        <v>3861.8784009057208</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -552,6 +552,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -561,7 +564,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -711,6 +714,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>1160757.8317516064</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1165377.5798944603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -753,7 +759,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -903,6 +909,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -912,7 +921,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1062,6 +1071,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>1200142.9325498701</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1244153.8241801611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1104,7 +1116,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1254,6 +1266,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1263,7 +1278,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1413,6 +1428,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>39385.10079826368</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>78776.244285700843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1434,11 +1452,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80325248"/>
-        <c:axId val="104422400"/>
+        <c:axId val="89037440"/>
+        <c:axId val="90972928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="80325248"/>
+        <c:axId val="89037440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1481,14 +1499,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104422400"/>
+        <c:crossAx val="90972928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="104422400"/>
+        <c:axId val="90972928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1539,7 +1557,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80325248"/>
+        <c:crossAx val="89037440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1700,7 +1718,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1850,6 +1868,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>8714.7559871502253</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4619.7481428539177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1864,8 +1885,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="545304960"/>
-        <c:axId val="536840832"/>
+        <c:axId val="161340800"/>
+        <c:axId val="161338880"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1890,7 +1911,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2040,6 +2061,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2049,7 +2073,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2199,6 +2223,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>3.5330991210937501</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.6494370117187498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2215,11 +2242,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="309925376"/>
-        <c:axId val="309926912"/>
+        <c:axId val="161302400"/>
+        <c:axId val="161303936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="309925376"/>
+        <c:axId val="161302400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2262,14 +2289,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309926912"/>
+        <c:crossAx val="161303936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="309926912"/>
+        <c:axId val="161303936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2320,12 +2347,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309925376"/>
+        <c:crossAx val="161302400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="536840832"/>
+        <c:axId val="161338880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2362,12 +2389,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545304960"/>
+        <c:crossAx val="161340800"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="545304960"/>
+        <c:axId val="161340800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2376,7 +2403,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="536840832"/>
+        <c:crossAx val="161338880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2785,7 +2812,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG52"/>
+  <dimension ref="A1:AG53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5040,6 +5067,44 @@
         <v>3861.8784009057208</v>
       </c>
     </row>
+    <row r="53" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="14">
+        <v>45838</v>
+      </c>
+      <c r="B53" s="15">
+        <v>3.6494370117187498</v>
+      </c>
+      <c r="C53" s="15">
+        <v>24.299999239999998</v>
+      </c>
+      <c r="D53" s="16">
+        <v>25.46955573186175</v>
+      </c>
+      <c r="E53" s="16">
+        <v>4619.7481428539177</v>
+      </c>
+      <c r="F53" s="17">
+        <v>1265.8796762403051</v>
+      </c>
+      <c r="G53" s="17">
+        <v>339858.43345056771</v>
+      </c>
+      <c r="H53" s="17">
+        <v>1240291.9457792554</v>
+      </c>
+      <c r="I53" s="17">
+        <v>1165377.5798944603</v>
+      </c>
+      <c r="J53" s="17">
+        <v>1244153.8241801611</v>
+      </c>
+      <c r="K53" s="17">
+        <v>78776.244285700843</v>
+      </c>
+      <c r="L53" s="16">
+        <v>3861.8784009057208</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -555,6 +555,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -564,7 +567,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -717,6 +720,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1165377.5798944603</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1166205.1375903317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -759,7 +765,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -912,6 +918,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -921,7 +930,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1074,6 +1083,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1244153.8241801611</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1295723.2582638566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1116,7 +1128,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1269,6 +1281,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1278,7 +1293,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1431,6 +1446,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>78776.244285700843</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>129518.12067352491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1452,11 +1470,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89037440"/>
-        <c:axId val="90972928"/>
+        <c:axId val="420641792"/>
+        <c:axId val="436921088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89037440"/>
+        <c:axId val="420641792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,14 +1517,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90972928"/>
+        <c:crossAx val="436921088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="90972928"/>
+        <c:axId val="436921088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1557,7 +1575,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89037440"/>
+        <c:crossAx val="420641792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1718,7 +1736,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1871,6 +1889,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>4619.7481428539177</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>827.55769587140355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1885,8 +1906,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="161340800"/>
-        <c:axId val="161338880"/>
+        <c:axId val="542572544"/>
+        <c:axId val="464123776"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1911,7 +1932,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2064,6 +2085,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2073,7 +2097,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2226,6 +2250,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>3.6494370117187498</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.7987399902343748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2242,11 +2269,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161302400"/>
-        <c:axId val="161303936"/>
+        <c:axId val="455337856"/>
+        <c:axId val="464121856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="161302400"/>
+        <c:axId val="455337856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2289,14 +2316,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161303936"/>
+        <c:crossAx val="464121856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="161303936"/>
+        <c:axId val="464121856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2347,12 +2374,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161302400"/>
+        <c:crossAx val="455337856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161338880"/>
+        <c:axId val="464123776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2389,12 +2416,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161340800"/>
+        <c:crossAx val="542572544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="161340800"/>
+        <c:axId val="542572544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2403,7 +2430,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161338880"/>
+        <c:crossAx val="464123776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2812,7 +2839,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG53"/>
+  <dimension ref="A1:AG54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5105,6 +5132,44 @@
         <v>3861.8784009057208</v>
       </c>
     </row>
+    <row r="54" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="14">
+        <v>45869</v>
+      </c>
+      <c r="B54" s="15">
+        <v>3.7987399902343748</v>
+      </c>
+      <c r="C54" s="15">
+        <v>25.25</v>
+      </c>
+      <c r="D54" s="16">
+        <v>25.459508277435798</v>
+      </c>
+      <c r="E54" s="16">
+        <v>827.55769587140355</v>
+      </c>
+      <c r="F54" s="17">
+        <v>217.8505762433993</v>
+      </c>
+      <c r="G54" s="17">
+        <v>340076.28402681113</v>
+      </c>
+      <c r="H54" s="17">
+        <v>1291861.3798629509</v>
+      </c>
+      <c r="I54" s="17">
+        <v>1166205.1375903317</v>
+      </c>
+      <c r="J54" s="17">
+        <v>1295723.2582638566</v>
+      </c>
+      <c r="K54" s="17">
+        <v>129518.12067352491</v>
+      </c>
+      <c r="L54" s="16">
+        <v>3861.8784009057208</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -558,6 +558,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -567,7 +570,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -722,6 +725,9 @@
                   <c:v>1165377.5798944603</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>1166205.1375903317</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>1166205.1375903317</c:v>
                 </c:pt>
               </c:numCache>
@@ -765,7 +771,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -921,6 +927,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -930,7 +939,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1086,6 +1095,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1295723.2582638566</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1547109.2913399187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1128,7 +1140,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1284,6 +1296,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1293,7 +1308,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1449,6 +1464,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>129518.12067352491</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>380904.15374958701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1470,11 +1488,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="420641792"/>
-        <c:axId val="436921088"/>
+        <c:axId val="89264896"/>
+        <c:axId val="89266816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="420641792"/>
+        <c:axId val="89264896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,14 +1535,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436921088"/>
+        <c:crossAx val="89266816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="436921088"/>
+        <c:axId val="89266816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1575,7 +1593,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420641792"/>
+        <c:crossAx val="89264896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1736,7 +1754,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1892,6 +1910,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>827.55769587140355</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-17883.962059553654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1906,8 +1927,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="542572544"/>
-        <c:axId val="464123776"/>
+        <c:axId val="499083520"/>
+        <c:axId val="499081984"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1932,7 +1953,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2088,6 +2109,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2097,7 +2121,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2253,6 +2277,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>3.7987399902343748</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.5379448242187497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2269,11 +2296,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="455337856"/>
-        <c:axId val="464121856"/>
+        <c:axId val="468608128"/>
+        <c:axId val="468609664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="455337856"/>
+        <c:axId val="468608128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2316,14 +2343,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464121856"/>
+        <c:crossAx val="468609664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="464121856"/>
+        <c:axId val="468609664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2374,12 +2401,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455337856"/>
+        <c:crossAx val="468608128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="464123776"/>
+        <c:axId val="499081984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2416,12 +2443,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542572544"/>
+        <c:crossAx val="499083520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="542572544"/>
+        <c:axId val="499083520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2430,7 +2457,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="464123776"/>
+        <c:crossAx val="499081984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2839,7 +2866,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG54"/>
+  <dimension ref="A1:AG55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5170,6 +5197,44 @@
         <v>3861.8784009057208</v>
       </c>
     </row>
+    <row r="55" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="14">
+        <v>45898</v>
+      </c>
+      <c r="B55" s="15">
+        <v>4.5379448242187497</v>
+      </c>
+      <c r="C55" s="15">
+        <v>30.020000459999999</v>
+      </c>
+      <c r="D55" s="16">
+        <v>25.492415128467428</v>
+      </c>
+      <c r="E55" s="16">
+        <v>-17883.962059553654</v>
+      </c>
+      <c r="F55" s="17">
+        <v>-3940.9827030306715</v>
+      </c>
+      <c r="G55" s="17">
+        <v>336135.30132378044</v>
+      </c>
+      <c r="H55" s="17">
+        <v>1525363.4508794593</v>
+      </c>
+      <c r="I55" s="17">
+        <v>1166205.1375903317</v>
+      </c>
+      <c r="J55" s="17">
+        <v>1547109.2913399187</v>
+      </c>
+      <c r="K55" s="17">
+        <v>380904.15374958701</v>
+      </c>
+      <c r="L55" s="16">
+        <v>21745.840460459374</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -561,6 +561,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -570,7 +573,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -728,6 +731,9 @@
                   <c:v>1166205.1375903317</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>1166205.1375903317</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>1166205.1375903317</c:v>
                 </c:pt>
               </c:numCache>
@@ -771,7 +777,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -930,6 +936,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -939,7 +948,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1098,6 +1107,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1547109.2913399187</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1721951.8409119861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1140,7 +1152,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1299,6 +1311,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1308,7 +1323,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1467,6 +1482,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>380904.15374958701</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>555746.70332165435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1488,11 +1506,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89264896"/>
-        <c:axId val="89266816"/>
+        <c:axId val="90573824"/>
+        <c:axId val="92139904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89264896"/>
+        <c:axId val="90573824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1535,14 +1553,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89266816"/>
+        <c:crossAx val="92139904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89266816"/>
+        <c:axId val="92139904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1593,7 +1611,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89264896"/>
+        <c:crossAx val="90573824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1754,7 +1772,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1913,6 +1931,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>-17883.962059553654</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-28655.058483172998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1927,8 +1948,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="499083520"/>
-        <c:axId val="499081984"/>
+        <c:axId val="609605120"/>
+        <c:axId val="537725952"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1953,7 +1974,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2112,6 +2133,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2121,7 +2145,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2280,6 +2304,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>4.5379448242187497</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.0581000976562498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2296,11 +2323,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="468608128"/>
-        <c:axId val="468609664"/>
+        <c:axId val="536844928"/>
+        <c:axId val="537724032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="468608128"/>
+        <c:axId val="536844928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2343,14 +2370,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468609664"/>
+        <c:crossAx val="537724032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="468609664"/>
+        <c:axId val="537724032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2401,12 +2428,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468608128"/>
+        <c:crossAx val="536844928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="499081984"/>
+        <c:axId val="537725952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2443,12 +2470,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499083520"/>
+        <c:crossAx val="609605120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="499083520"/>
+        <c:axId val="609605120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2457,7 +2484,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="499081984"/>
+        <c:crossAx val="537725952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2866,7 +2893,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG55"/>
+  <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5235,6 +5262,44 @@
         <v>21745.840460459374</v>
       </c>
     </row>
+    <row r="56" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="14">
+        <v>45930</v>
+      </c>
+      <c r="B56" s="15">
+        <v>5.0581000976562498</v>
+      </c>
+      <c r="C56" s="15">
+        <v>32.849998470000003</v>
+      </c>
+      <c r="D56" s="16">
+        <v>25.595553284386586</v>
+      </c>
+      <c r="E56" s="16">
+        <v>-28655.058483172998</v>
+      </c>
+      <c r="F56" s="17">
+        <v>-5665.1821691806317</v>
+      </c>
+      <c r="G56" s="17">
+        <v>330470.11915459979</v>
+      </c>
+      <c r="H56" s="17">
+        <v>1671550.9419683537</v>
+      </c>
+      <c r="I56" s="17">
+        <v>1166205.1375903317</v>
+      </c>
+      <c r="J56" s="17">
+        <v>1721951.8409119861</v>
+      </c>
+      <c r="K56" s="17">
+        <v>555746.70332165435</v>
+      </c>
+      <c r="L56" s="16">
+        <v>50400.898943632375</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -564,6 +564,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -573,7 +576,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -734,6 +737,9 @@
                   <c:v>1166205.1375903317</c:v>
                 </c:pt>
                 <c:pt idx="53">
+                  <c:v>1166205.1375903317</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>1166205.1375903317</c:v>
                 </c:pt>
               </c:numCache>
@@ -777,7 +783,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -939,6 +945,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -948,7 +957,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1110,6 +1119,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>1721951.8409119861</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1700551.1575365569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1152,7 +1164,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1314,6 +1326,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1323,7 +1338,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1485,6 +1500,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>555746.70332165435</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>534346.01994622522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1506,11 +1524,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90573824"/>
-        <c:axId val="92139904"/>
+        <c:axId val="74794496"/>
+        <c:axId val="74796416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90573824"/>
+        <c:axId val="74794496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1553,14 +1571,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92139904"/>
+        <c:crossAx val="74796416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92139904"/>
+        <c:axId val="74796416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1611,7 +1629,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90573824"/>
+        <c:crossAx val="74794496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1772,7 +1790,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1934,6 +1952,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>-28655.058483172998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-25555.095412625229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1948,8 +1969,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="609605120"/>
-        <c:axId val="537725952"/>
+        <c:axId val="452451328"/>
+        <c:axId val="452449408"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1974,7 +1995,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2136,6 +2157,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2145,7 +2169,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2307,6 +2331,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>5.0581000976562498</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.9933417968749998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2323,11 +2350,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536844928"/>
-        <c:axId val="537724032"/>
+        <c:axId val="452372352"/>
+        <c:axId val="452373888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536844928"/>
+        <c:axId val="452372352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2370,14 +2397,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537724032"/>
+        <c:crossAx val="452373888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537724032"/>
+        <c:axId val="452373888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2428,12 +2455,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536844928"/>
+        <c:crossAx val="452372352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="537725952"/>
+        <c:axId val="452449408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2470,12 +2497,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609605120"/>
+        <c:crossAx val="452451328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="609605120"/>
+        <c:axId val="452451328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2484,7 +2511,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="537725952"/>
+        <c:crossAx val="452449408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2893,7 +2920,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG56"/>
+  <dimension ref="A1:AG57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5300,6 +5327,44 @@
         <v>50400.898943632375</v>
       </c>
     </row>
+    <row r="57" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="14">
+        <v>45961</v>
+      </c>
+      <c r="B57" s="15">
+        <v>4.9933417968749998</v>
+      </c>
+      <c r="C57" s="15">
+        <v>32.159999849999998</v>
+      </c>
+      <c r="D57" s="16">
+        <v>25.690355441740447</v>
+      </c>
+      <c r="E57" s="16">
+        <v>-25555.095412625229</v>
+      </c>
+      <c r="F57" s="17">
+        <v>-5117.8341984557237</v>
+      </c>
+      <c r="G57" s="17">
+        <v>325352.28495614405</v>
+      </c>
+      <c r="H57" s="17">
+        <v>1624595.1631802993</v>
+      </c>
+      <c r="I57" s="17">
+        <v>1166205.1375903317</v>
+      </c>
+      <c r="J57" s="17">
+        <v>1700551.1575365569</v>
+      </c>
+      <c r="K57" s="17">
+        <v>534346.01994622522</v>
+      </c>
+      <c r="L57" s="16">
+        <v>75955.994356257608</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -567,6 +567,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -576,7 +579,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -740,6 +743,9 @@
                   <c:v>1166205.1375903317</c:v>
                 </c:pt>
                 <c:pt idx="54">
+                  <c:v>1166205.1375903317</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>1166205.1375903317</c:v>
                 </c:pt>
               </c:numCache>
@@ -783,7 +789,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -948,6 +954,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -957,7 +966,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1122,6 +1131,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>1700551.1575365569</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1645486.3953516721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1164,7 +1176,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1329,6 +1341,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1338,7 +1353,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1503,6 +1518,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>534346.01994622522</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>479281.25776134036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1524,11 +1542,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="74794496"/>
-        <c:axId val="74796416"/>
+        <c:axId val="433547520"/>
+        <c:axId val="439703808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="74794496"/>
+        <c:axId val="433547520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1571,14 +1589,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74796416"/>
+        <c:crossAx val="439703808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="74796416"/>
+        <c:axId val="439703808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1629,7 +1647,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74794496"/>
+        <c:crossAx val="433547520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1790,7 +1808,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1955,6 +1973,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>-25555.095412625229</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-15847.849901360847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1969,8 +1990,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="452451328"/>
-        <c:axId val="452449408"/>
+        <c:axId val="507685504"/>
+        <c:axId val="475262336"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1995,7 +2016,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2160,6 +2181,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2169,7 +2193,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2334,6 +2358,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>4.9933417968749998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.8240952148437497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2350,11 +2377,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452372352"/>
-        <c:axId val="452373888"/>
+        <c:axId val="474835200"/>
+        <c:axId val="475259648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="452372352"/>
+        <c:axId val="474835200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2397,14 +2424,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452373888"/>
+        <c:crossAx val="475259648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="452373888"/>
+        <c:axId val="475259648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2455,12 +2482,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452372352"/>
+        <c:crossAx val="474835200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="452449408"/>
+        <c:axId val="475262336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,12 +2524,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452451328"/>
+        <c:crossAx val="507685504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="452451328"/>
+        <c:axId val="507685504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2511,7 +2538,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="452449408"/>
+        <c:crossAx val="475262336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2920,7 +2947,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG57"/>
+  <dimension ref="A1:AG58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5365,6 +5392,44 @@
         <v>75955.994356257608</v>
       </c>
     </row>
+    <row r="58" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="14">
+        <v>45989</v>
+      </c>
+      <c r="B58" s="15">
+        <v>4.8240952148437497</v>
+      </c>
+      <c r="C58" s="15">
+        <v>29.780000690000001</v>
+      </c>
+      <c r="D58" s="16">
+        <v>25.767886790921306</v>
+      </c>
+      <c r="E58" s="16">
+        <v>-15847.849901360847</v>
+      </c>
+      <c r="F58" s="17">
+        <v>-3285.1445080513718</v>
+      </c>
+      <c r="G58" s="17">
+        <v>322067.14044809266</v>
+      </c>
+      <c r="H58" s="17">
+        <v>1553682.5510940535</v>
+      </c>
+      <c r="I58" s="17">
+        <v>1166205.1375903317</v>
+      </c>
+      <c r="J58" s="17">
+        <v>1645486.3953516721</v>
+      </c>
+      <c r="K58" s="17">
+        <v>479281.25776134036</v>
+      </c>
+      <c r="L58" s="16">
+        <v>91803.844257618461</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
